--- a/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruiz\Google Drive\Microsoft Excel_ Advanced Formulas &amp; Functions (SPANISH)\Downloadable Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB28D8-312F-407B-960E-1E5CEE1262F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432CAFBD-B820-4270-8B24-384A60040315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -35,7 +35,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2221,7 +2226,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2253,14 +2258,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2284,29 +2285,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2314,12 +2300,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2379,7 +2359,7 @@
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2388,13 +2368,7 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2409,7 +2383,7 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,26 +2398,29 @@
     <xf numFmtId="170" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2456,15 +2433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6807,7 +6775,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -6816,32 +6784,32 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="20" style="37" customWidth="1"/>
-    <col min="6" max="6" width="16" style="37" customWidth="1"/>
+    <col min="5" max="5" width="20" style="28" customWidth="1"/>
+    <col min="6" max="6" width="16" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="59" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="20">
         <v>42370</v>
       </c>
       <c r="B2" s="2">
@@ -6853,17 +6821,17 @@
       <c r="D2" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="49">
         <f>IFERROR(C2/$B2,"-")</f>
         <v>0.5273972602739726</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="49">
         <f>IFERROR(D2/$B2,"-")</f>
         <v>0.12328767123287671</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="20">
         <v>42370</v>
       </c>
       <c r="B3" s="2">
@@ -6875,17 +6843,17 @@
       <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="49">
         <f t="shared" ref="E3:F26" si="0">IFERROR(C3/$B3,"-")</f>
         <v>0.42603550295857989</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="49">
         <f t="shared" si="0"/>
         <v>8.8757396449704137E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="20">
         <v>42370</v>
       </c>
       <c r="B4" s="2">
@@ -6897,17 +6865,17 @@
       <c r="D4" s="2">
         <v>19</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="49">
         <f t="shared" si="0"/>
         <v>0.35678391959798994</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="49">
         <f t="shared" si="0"/>
         <v>9.5477386934673364E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>42371</v>
       </c>
       <c r="B5" s="2">
@@ -6919,17 +6887,17 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="49">
         <f t="shared" si="0"/>
         <v>0.23487544483985764</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="49">
         <f t="shared" si="0"/>
         <v>3.5587188612099648E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="20">
         <v>42371</v>
       </c>
       <c r="B6" s="2">
@@ -6941,17 +6909,17 @@
       <c r="D6" s="2">
         <v>19</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="49">
         <f t="shared" si="0"/>
         <v>0.19924812030075187</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="49">
         <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="20">
         <v>42371</v>
       </c>
       <c r="B7" s="2">
@@ -6963,17 +6931,17 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="49">
         <f t="shared" si="0"/>
         <v>0.30324909747292417</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>5.4151624548736461E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="20">
         <v>42372</v>
       </c>
       <c r="B8" s="2">
@@ -6985,17 +6953,17 @@
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="49">
         <f>IFERROR(C8/$B8,"-")</f>
         <v>0.50344827586206897</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="20">
         <v>42372</v>
       </c>
       <c r="B9" s="2">
@@ -7007,17 +6975,17 @@
       <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="49">
         <f t="shared" si="0"/>
         <v>0.30396475770925108</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>5.2863436123348019E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="20">
         <v>42372</v>
       </c>
       <c r="B10" s="2">
@@ -7029,17 +6997,17 @@
       <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>0.43888888888888888</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="20">
         <v>42373</v>
       </c>
       <c r="B11" s="2">
@@ -7051,17 +7019,17 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="58" t="str">
+      <c r="E11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F11" s="58" t="str">
+      <c r="F11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="20">
         <v>42374</v>
       </c>
       <c r="B12" s="2">
@@ -7073,17 +7041,17 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="49">
         <f t="shared" si="0"/>
         <v>0.30991735537190085</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>4.1322314049586778E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="20">
         <v>42374</v>
       </c>
       <c r="B13" s="2">
@@ -7095,17 +7063,17 @@
       <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="49">
         <f t="shared" si="0"/>
         <v>0.34883720930232559</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>7.441860465116279E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="20">
         <v>42374</v>
       </c>
       <c r="B14" s="2">
@@ -7117,17 +7085,17 @@
       <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="49">
         <f t="shared" si="0"/>
         <v>0.33606557377049179</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="20">
         <v>42374</v>
       </c>
       <c r="B15" s="2">
@@ -7139,17 +7107,17 @@
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
         <v>0.39664804469273746</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>7.2625698324022353E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="20">
         <v>42374</v>
       </c>
       <c r="B16" s="2">
@@ -7161,17 +7129,17 @@
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="49">
         <f t="shared" si="0"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>5.0724637681159424E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="20">
         <v>42375</v>
       </c>
       <c r="B17" s="2">
@@ -7183,17 +7151,17 @@
       <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="49">
         <f t="shared" si="0"/>
         <v>0.61417322834645671</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>0.15748031496062992</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="20">
         <v>42375</v>
       </c>
       <c r="B18" s="2">
@@ -7205,17 +7173,17 @@
       <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="49">
         <f t="shared" si="0"/>
         <v>0.2756183745583039</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>6.3604240282685506E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="20">
         <v>42375</v>
       </c>
       <c r="B19" s="2">
@@ -7227,17 +7195,17 @@
       <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="49">
         <f t="shared" si="0"/>
         <v>0.60317460317460314</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>0.15873015873015872</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="20">
         <v>42376</v>
       </c>
       <c r="B20" s="2">
@@ -7249,17 +7217,17 @@
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="49">
         <f t="shared" si="0"/>
         <v>0.30916030534351147</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>7.2519083969465645E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="20">
         <v>42376</v>
       </c>
       <c r="B21" s="2">
@@ -7271,17 +7239,17 @@
       <c r="D21" s="2">
         <v>14</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="49">
         <f t="shared" si="0"/>
         <v>0.28222996515679444</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="20">
         <v>42376</v>
       </c>
       <c r="B22" s="2">
@@ -7293,17 +7261,17 @@
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="49">
         <f t="shared" si="0"/>
         <v>0.30483271375464682</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="49">
         <f t="shared" si="0"/>
         <v>5.204460966542751E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="20">
         <v>42377</v>
       </c>
       <c r="B23" s="2">
@@ -7315,17 +7283,17 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="49">
         <f t="shared" si="0"/>
         <v>0.19852941176470587</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="49">
         <f t="shared" si="0"/>
         <v>3.6764705882352942E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="20">
         <v>42377</v>
       </c>
       <c r="B24" s="2">
@@ -7337,17 +7305,17 @@
       <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="49">
         <f t="shared" si="0"/>
         <v>0.33823529411764708</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="49">
         <f t="shared" si="0"/>
         <v>5.3921568627450983E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="20">
         <v>42377</v>
       </c>
       <c r="B25" s="2">
@@ -7359,17 +7327,17 @@
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="49">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="49">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="20">
         <v>42377</v>
       </c>
       <c r="B26" s="2">
@@ -7381,20 +7349,20 @@
       <c r="D26" s="2">
         <v>19</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="49">
         <f t="shared" si="0"/>
         <v>0.34482758620689657</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="49">
         <f t="shared" si="0"/>
         <v>7.2796934865900387E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7429,7 +7397,7 @@
       <c r="B2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="42">
         <v>42005</v>
       </c>
     </row>
@@ -7437,18 +7405,18 @@
       <c r="B3" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="42">
         <f ca="1">TODAY()</f>
-        <v>43481</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="43">
         <f ca="1">NOW()</f>
-        <v>43481.442930787038</v>
+        <v>45081.00218865741</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7472,97 +7440,97 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53">
+      <c r="B7" s="44">
         <f ca="1">YEAR(C3)</f>
-        <v>2019</v>
-      </c>
-      <c r="C7" s="53">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="44">
         <f ca="1">MONTH(C3)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="53">
+        <v>6</v>
+      </c>
+      <c r="D7" s="44">
         <f ca="1">DAY(C3)</f>
-        <v>16</v>
-      </c>
-      <c r="E7" s="53">
+        <v>4</v>
+      </c>
+      <c r="E7" s="44">
         <f ca="1">HOUR(C4)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="53">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
         <f ca="1">MINUTE(C4)</f>
-        <v>37</v>
-      </c>
-      <c r="G7" s="53">
+        <v>3</v>
+      </c>
+      <c r="G7" s="44">
         <f ca="1">SECOND(C4)</f>
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="62">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
-      <c r="C10" s="26"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="42">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>43551</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="45">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>1055</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="42">
         <f ca="1">EOMONTH(C3,0)</f>
-        <v>43496</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="42">
         <f ca="1">EOMONTH(C3,-1)+1</f>
-        <v>43466</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="42">
         <f ca="1">EOMONTH(C3,(-1*C7))+1</f>
-        <v>43466</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -7571,62 +7539,62 @@
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+      <c r="B19" s="20">
         <v>42005</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="B20" s="20">
         <v>42370</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="28">
+      <c r="B21" s="20">
         <v>42736</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
+      <c r="B22" s="20">
         <v>43101</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
+      <c r="B23" s="20">
         <v>43466</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+      <c r="B24" s="20">
         <v>43831</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
+      <c r="B25" s="20">
         <v>44197</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
+      <c r="B26" s="20">
         <v>44562</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
+      <c r="B27" s="20">
         <v>44927</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
+      <c r="B28" s="20">
         <v>45292</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
+      <c r="B29" s="20">
         <v>45658</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
+      <c r="B30" s="20">
         <v>46023</v>
       </c>
     </row>
@@ -7650,11 +7618,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="44" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="35" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="35" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7673,629 +7641,629 @@
       <c r="E1" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="55" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="20">
         <v>41640</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="8">
         <v>1099</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="8">
         <v>275</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="8">
         <v>643</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="8">
         <f>B2-D2</f>
         <v>456</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="63">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="20">
         <v>41671</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="8">
         <v>1204</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="8">
         <f>B3-B2</f>
         <v>105</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="8">
         <v>720</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="8">
         <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="64">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>41699</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="8">
         <v>1944</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C25" si="1">B4-B3</f>
         <v>740</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="8">
         <v>964</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E25" si="2">B4-D4</f>
         <v>980</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="20">
         <v>41730</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="8">
         <v>1743</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="8">
         <f t="shared" si="1"/>
         <v>-201</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="8">
         <v>830</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="8">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="64">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
         <v>41760</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="8">
         <v>1609</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>-134</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="8">
         <v>910</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="64">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>41791</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="8">
         <v>1494</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="8">
         <v>909</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="64">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="20">
         <v>41821</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="8">
         <v>1959</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="8">
         <v>830</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="8">
         <f t="shared" si="2"/>
         <v>1129</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="64">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="20">
         <v>41852</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="8">
         <v>1868</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>-91</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="8">
         <v>906</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="8">
         <f t="shared" si="2"/>
         <v>962</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="64">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="20">
         <v>41883</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="8">
         <v>1162</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>-706</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="8">
         <v>606</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="8">
         <f t="shared" si="2"/>
         <v>556</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="64">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="20">
         <v>41913</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="8">
         <v>1424</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="8">
         <v>943</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="8">
         <f t="shared" si="2"/>
         <v>481</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="64">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="20">
         <v>41944</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="8">
         <v>1232</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>-192</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="8">
         <v>801</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="8">
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="64">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="20">
         <v>41974</v>
       </c>
-      <c r="B13" s="76">
+      <c r="B13" s="8">
         <v>1738</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="8">
         <v>786</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="8">
         <f t="shared" si="2"/>
         <v>952</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="64">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="20">
         <v>42005</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="8">
         <v>1435</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="8">
         <f t="shared" si="1"/>
         <v>-303</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="8">
         <v>575</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="8">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="64">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="20">
         <v>42036</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="8">
         <v>1865</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="8">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="8">
         <v>754</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="8">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="64">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="20">
         <v>42064</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="8">
         <v>1234</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="8">
         <f t="shared" si="1"/>
         <v>-631</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="8">
         <v>599</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="8">
         <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="64">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="20">
         <v>42095</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="8">
         <v>1577</v>
       </c>
-      <c r="C17" s="76">
+      <c r="C17" s="8">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="8">
         <v>940</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="8">
         <f t="shared" si="2"/>
         <v>637</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="64">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="20">
         <v>42125</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="8">
         <v>1983</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="8">
         <v>954</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="8">
         <f t="shared" si="2"/>
         <v>1029</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="64">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="20">
         <v>42156</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="8">
         <v>1356</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="8">
         <f t="shared" si="1"/>
         <v>-627</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="8">
         <v>577</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="8">
         <f t="shared" si="2"/>
         <v>779</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="64">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>42186</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="8">
         <v>1874</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="8">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="8">
         <v>865</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="8">
         <v>883</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="64">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>42217</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="8">
         <v>1479</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="8">
         <f t="shared" si="1"/>
         <v>-395</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="8">
         <v>588</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="8">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="64">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>42248</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="8">
         <v>1943</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="8">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="8">
         <v>785</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="8">
         <v>712</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="64">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="20">
         <v>42278</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="8">
         <v>1444</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="8">
         <f t="shared" si="1"/>
         <v>-499</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="8">
         <v>657</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="8">
         <f t="shared" si="2"/>
         <v>787</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="64">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="20">
         <v>42309</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="8">
         <v>1493</v>
       </c>
-      <c r="C24" s="76">
+      <c r="C24" s="8">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="8">
         <v>880</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="8">
         <f t="shared" si="2"/>
         <v>613</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="64">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="20">
         <v>42339</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="8">
         <v>1738</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="8">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="8">
         <v>580</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="8">
         <f t="shared" si="2"/>
         <v>1158</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="64">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
@@ -8395,7 +8363,7 @@
       <c r="G2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="51">
         <f t="array" ref="H2">MAX(IF(B2:B16="NYC",E2:E16))</f>
         <v>25897</v>
       </c>
@@ -8436,7 +8404,7 @@
       <c r="G4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="51">
         <f t="array" ref="H4">MAX(IF((B2:B16="NYC")*(C2:C16="Electronics"),E2:E16))</f>
         <v>15414</v>
       </c>
@@ -8477,14 +8445,14 @@
       <c r="G6" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="40">
         <f t="array" ref="H6">SUM(--(E2:E16&gt;D2:D16))</f>
         <v>9</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="57" t="s">
         <v>256</v>
       </c>
     </row>
@@ -8504,7 +8472,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="65" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8527,7 +8495,7 @@
       <c r="G8" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="51">
         <f t="array" ref="H8">SUM((D2:D16+E2:E16)*(B2:B16="BOS"))</f>
         <v>140337</v>
       </c>
@@ -8696,31 +8664,31 @@
     <col min="6" max="6" width="19.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="20" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="35" customWidth="1"/>
     <col min="13" max="20" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="I1" s="84" t="s">
+      <c r="G1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8729,33 +8697,33 @@
       <c r="B2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="31">
         <v>42373</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="32" t="s">
         <v>253</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="29" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="20">
         <v>42370</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -8767,31 +8735,31 @@
       <c r="D3" s="8">
         <v>8000</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="31">
         <v>42379</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="46">
         <f t="array" ref="I3">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A3))),"")</f>
         <v>42373</v>
       </c>
-      <c r="J3" s="55" t="str">
+      <c r="J3" s="46" t="str">
         <f t="array" ref="J3">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B3))),"")</f>
         <v>D</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="47">
         <f t="array" ref="K3">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C3))),"")</f>
         <v>150000</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="47">
         <f t="array" ref="L3">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D3))),"")</f>
         <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="20">
         <v>42371</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8803,31 +8771,31 @@
       <c r="D4" s="8">
         <v>10000</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="33">
         <v>100000</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="46">
         <f t="array" ref="I4">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A4))),"")</f>
         <v>42376</v>
       </c>
-      <c r="J4" s="55" t="str">
+      <c r="J4" s="46" t="str">
         <f t="array" ref="J4">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B4))),"")</f>
         <v>G</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="47">
         <f t="array" ref="K4">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C4))),"")</f>
         <v>120000</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="47">
         <f t="array" ref="L4">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D4))),"")</f>
         <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>42372</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8840,26 +8808,26 @@
         <v>12500</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="43"/>
-      <c r="I5" s="55">
+      <c r="G5" s="34"/>
+      <c r="I5" s="46">
         <f t="array" ref="I5">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A5))),"")</f>
         <v>42377</v>
       </c>
-      <c r="J5" s="55" t="str">
+      <c r="J5" s="46" t="str">
         <f t="array" ref="J5">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B5))),"")</f>
         <v>H</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="47">
         <f t="array" ref="K5">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C5))),"")</f>
         <v>105000</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="47">
         <f t="array" ref="L5">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D5))),"")</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="20">
         <v>42373</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8871,25 +8839,25 @@
       <c r="D6" s="8">
         <v>8000</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="46">
         <f t="array" ref="I6">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A6))),"")</f>
         <v>42379</v>
       </c>
-      <c r="J6" s="55" t="str">
+      <c r="J6" s="46" t="str">
         <f t="array" ref="J6">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B6))),"")</f>
         <v>J</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="47">
         <f t="array" ref="K6">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C6))),"")</f>
         <v>110000</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="47">
         <f t="array" ref="L6">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D6))),"")</f>
         <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="20">
         <v>42374</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8901,25 +8869,25 @@
       <c r="D7" s="8">
         <v>12000</v>
       </c>
-      <c r="I7" s="55" t="str">
+      <c r="I7" s="46" t="str">
         <f t="array" ref="I7">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A7))),"")</f>
         <v/>
       </c>
-      <c r="J7" s="55" t="str">
+      <c r="J7" s="46" t="str">
         <f t="array" ref="J7">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B7))),"")</f>
         <v/>
       </c>
-      <c r="K7" s="56" t="str">
+      <c r="K7" s="47" t="str">
         <f t="array" ref="K7">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C7))),"")</f>
         <v/>
       </c>
-      <c r="L7" s="56" t="str">
+      <c r="L7" s="47" t="str">
         <f t="array" ref="L7">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D7))),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="20">
         <v>42375</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8931,25 +8899,25 @@
       <c r="D8" s="8">
         <v>8000</v>
       </c>
-      <c r="I8" s="55" t="str">
+      <c r="I8" s="46" t="str">
         <f t="array" ref="I8">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A8))),"")</f>
         <v/>
       </c>
-      <c r="J8" s="55" t="str">
+      <c r="J8" s="46" t="str">
         <f t="array" ref="J8">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B8))),"")</f>
         <v/>
       </c>
-      <c r="K8" s="56" t="str">
+      <c r="K8" s="47" t="str">
         <f t="array" ref="K8">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C8))),"")</f>
         <v/>
       </c>
-      <c r="L8" s="56" t="str">
+      <c r="L8" s="47" t="str">
         <f t="array" ref="L8">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D8))),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="20">
         <v>42376</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8961,25 +8929,25 @@
       <c r="D9" s="8">
         <v>12000</v>
       </c>
-      <c r="I9" s="55" t="str">
+      <c r="I9" s="46" t="str">
         <f t="array" ref="I9">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A9))),"")</f>
         <v/>
       </c>
-      <c r="J9" s="55" t="str">
+      <c r="J9" s="46" t="str">
         <f t="array" ref="J9">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B9))),"")</f>
         <v/>
       </c>
-      <c r="K9" s="56" t="str">
+      <c r="K9" s="47" t="str">
         <f t="array" ref="K9">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C9))),"")</f>
         <v/>
       </c>
-      <c r="L9" s="56" t="str">
+      <c r="L9" s="47" t="str">
         <f t="array" ref="L9">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D9))),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="20">
         <v>42377</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8991,25 +8959,25 @@
       <c r="D10" s="8">
         <v>10000</v>
       </c>
-      <c r="I10" s="55" t="str">
+      <c r="I10" s="46" t="str">
         <f t="array" ref="I10">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A10))),"")</f>
         <v/>
       </c>
-      <c r="J10" s="55" t="str">
+      <c r="J10" s="46" t="str">
         <f t="array" ref="J10">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B10))),"")</f>
         <v/>
       </c>
-      <c r="K10" s="56" t="str">
+      <c r="K10" s="47" t="str">
         <f t="array" ref="K10">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C10))),"")</f>
         <v/>
       </c>
-      <c r="L10" s="56" t="str">
+      <c r="L10" s="47" t="str">
         <f t="array" ref="L10">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D10))),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="20">
         <v>42378</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -9021,25 +8989,25 @@
       <c r="D11" s="8">
         <v>12000</v>
       </c>
-      <c r="I11" s="55" t="str">
+      <c r="I11" s="46" t="str">
         <f t="array" ref="I11">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A11))),"")</f>
         <v/>
       </c>
-      <c r="J11" s="55" t="str">
+      <c r="J11" s="46" t="str">
         <f t="array" ref="J11">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B11))),"")</f>
         <v/>
       </c>
-      <c r="K11" s="56" t="str">
+      <c r="K11" s="47" t="str">
         <f t="array" ref="K11">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C11))),"")</f>
         <v/>
       </c>
-      <c r="L11" s="56" t="str">
+      <c r="L11" s="47" t="str">
         <f t="array" ref="L11">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D11))),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="20">
         <v>42379</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9051,25 +9019,25 @@
       <c r="D12" s="8">
         <v>12000</v>
       </c>
-      <c r="I12" s="55" t="str">
+      <c r="I12" s="46" t="str">
         <f t="array" ref="I12">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A12))),"")</f>
         <v/>
       </c>
-      <c r="J12" s="55" t="str">
+      <c r="J12" s="46" t="str">
         <f t="array" ref="J12">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B12))),"")</f>
         <v/>
       </c>
-      <c r="K12" s="56" t="str">
+      <c r="K12" s="47" t="str">
         <f t="array" ref="K12">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C12))),"")</f>
         <v/>
       </c>
-      <c r="L12" s="56" t="str">
+      <c r="L12" s="47" t="str">
         <f t="array" ref="L12">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D12))),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="20">
         <v>42380</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -9082,25 +9050,25 @@
         <v>10000</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="55" t="str">
+      <c r="I13" s="46" t="str">
         <f t="array" ref="I13">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A13))),"")</f>
         <v/>
       </c>
-      <c r="J13" s="55" t="str">
+      <c r="J13" s="46" t="str">
         <f t="array" ref="J13">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B13))),"")</f>
         <v/>
       </c>
-      <c r="K13" s="56" t="str">
+      <c r="K13" s="47" t="str">
         <f t="array" ref="K13">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C13))),"")</f>
         <v/>
       </c>
-      <c r="L13" s="56" t="str">
+      <c r="L13" s="47" t="str">
         <f t="array" ref="L13">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D13))),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="20">
         <v>42381</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -9113,30 +9081,30 @@
         <v>12000</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="55" t="str">
+      <c r="I14" s="46" t="str">
         <f t="array" ref="I14">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-2),ROWS(A$3:A14))),"")</f>
         <v/>
       </c>
-      <c r="J14" s="55" t="str">
+      <c r="J14" s="46" t="str">
         <f t="array" ref="J14">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-2),ROWS(B$3:B14))),"")</f>
         <v/>
       </c>
-      <c r="K14" s="56" t="str">
+      <c r="K14" s="47" t="str">
         <f t="array" ref="K14">IFERROR(INDEX(C$3:C$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(C$3:C$14)-2),ROWS(C$3:C14))),"")</f>
         <v/>
       </c>
-      <c r="L14" s="56" t="str">
+      <c r="L14" s="47" t="str">
         <f t="array" ref="L14">IFERROR(INDEX(D$3:D$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(D$3:D$14)-2),ROWS(D$3:D14))),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
-      <c r="I15" s="72" t="str">
+      <c r="I15" s="61" t="str">
         <f t="array" ref="I15">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-ROW(A$3)+1),ROWS(A$3:A15))),"")</f>
         <v/>
       </c>
-      <c r="J15" s="28" t="str">
+      <c r="J15" s="20" t="str">
         <f t="array" ref="J15">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-ROW(B$3)+1),ROWS(B$3:B15))),"")</f>
         <v/>
       </c>
@@ -9151,11 +9119,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="20" t="str">
         <f t="array" ref="I16">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-ROW(A$3)+1),ROWS(A$3:A16))),"")</f>
         <v/>
       </c>
-      <c r="J16" s="28" t="str">
+      <c r="J16" s="20" t="str">
         <f t="array" ref="J16">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-ROW(B$3)+1),ROWS(B$3:B16))),"")</f>
         <v/>
       </c>
@@ -9170,11 +9138,11 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H17" s="2"/>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="20" t="str">
         <f t="array" ref="I17">IFERROR(INDEX(A$3:A$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(A$3:A$14)-ROW(A$3)+1),ROWS(A$3:A17))),"")</f>
         <v/>
       </c>
-      <c r="J17" s="28" t="str">
+      <c r="J17" s="20" t="str">
         <f t="array" ref="J17">IFERROR(INDEX(B$3:B$14,SMALL(IF(($C$3:$C$14&gt;=$G$4)*($A$3:$A$14&gt;=$G$2)*($A$3:$A$14&lt;=$G$3),ROW(B$3:B$14)-ROW(B$3)+1),ROWS(B$3:B17))),"")</f>
         <v/>
       </c>
@@ -9188,304 +9156,309 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
     </row>
     <row r="19" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
     </row>
     <row r="25" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
     </row>
     <row r="26" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
     </row>
     <row r="27" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
     </row>
     <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A20:S20"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9494,11 +9467,6 @@
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
     <mergeCell ref="A26:S26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A20:S20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9513,444 +9481,444 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="22" style="34" customWidth="1"/>
-    <col min="5" max="5" width="12" style="34" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="57" t="str">
+      <c r="D2" s="48" t="str">
         <f>IF(C2&lt;60,"REPROBADO","APROBADO")</f>
         <v>APROBADO</v>
       </c>
-      <c r="E2" s="57" t="str">
+      <c r="E2" s="48" t="str">
         <f>IF(C2&gt;=90,"A",IF(AND(C2&gt;=80,C2&lt;=89),"B",IF(AND(C2&gt;=70,C2&lt;=79),"C",IF(AND(C2&gt;=60,C2&lt;=69),"D","F"))))</f>
         <v>A</v>
       </c>
-      <c r="F2" s="57" t="str">
+      <c r="F2" s="48" t="str">
         <f>IF(OR(C2&lt;60,C2&gt;90),"ATIPICO","PROMEDIO")</f>
         <v>PROMEDIO</v>
       </c>
-      <c r="G2" s="57" t="str">
+      <c r="G2" s="48" t="str">
         <f>IF(AND(B2="F",C2&gt;95),"Mujer Destacada",IF(AND(B2="M",C2&gt;95),"Hombre Destacado","Ninguno"))</f>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="48" t="str">
         <f t="shared" ref="D3:D16" si="0">IF(C3&lt;60,"REPROBADO","APROBADO")</f>
         <v>APROBADO</v>
       </c>
-      <c r="E3" s="57" t="str">
+      <c r="E3" s="48" t="str">
         <f t="shared" ref="E3:E16" si="1">IF(C3&gt;=90,"A",IF(AND(C3&gt;=80,C3&lt;=89),"B",IF(AND(C3&gt;=70,C3&lt;=79),"C",IF(AND(C3&gt;=60,C3&lt;=69),"D","F"))))</f>
         <v>B</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="48" t="str">
         <f t="shared" ref="F3:F16" si="2">IF(OR(C3&lt;60,C3&gt;90),"ATIPICO","PROMEDIO")</f>
         <v>PROMEDIO</v>
       </c>
-      <c r="G3" s="57" t="str">
+      <c r="G3" s="48" t="str">
         <f t="shared" ref="G3:G16" si="3">IF(AND(B3="F",C3&gt;95),"Mujer Destacada",IF(AND(B3="M",C3&gt;95),"Hombre Destacado","Ninguno"))</f>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="57" t="str">
+      <c r="D4" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E4" s="57" t="str">
+      <c r="E4" s="48" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F4" s="57" t="str">
+      <c r="F4" s="48" t="str">
         <f t="shared" si="2"/>
         <v>ATIPICO</v>
       </c>
-      <c r="G4" s="57" t="str">
+      <c r="G4" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Mujer Destacada</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="57" t="str">
+      <c r="D5" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E5" s="57" t="str">
+      <c r="E5" s="48" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="F5" s="57" t="str">
+      <c r="F5" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G5" s="57" t="str">
+      <c r="G5" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="57" t="str">
+      <c r="D6" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E6" s="57" t="str">
+      <c r="E6" s="48" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F6" s="57" t="str">
+      <c r="F6" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G6" s="57" t="str">
+      <c r="G6" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="57" t="str">
+      <c r="D7" s="48" t="str">
         <f t="shared" si="0"/>
         <v>REPROBADO</v>
       </c>
-      <c r="E7" s="57" t="str">
+      <c r="E7" s="48" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="F7" s="57" t="str">
+      <c r="F7" s="48" t="str">
         <f t="shared" si="2"/>
         <v>ATIPICO</v>
       </c>
-      <c r="G7" s="57" t="str">
+      <c r="G7" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="57" t="str">
+      <c r="D8" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E8" s="57" t="str">
+      <c r="E8" s="48" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F8" s="57" t="str">
+      <c r="F8" s="48" t="str">
         <f t="shared" si="2"/>
         <v>ATIPICO</v>
       </c>
-      <c r="G8" s="57" t="str">
+      <c r="G8" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Hombre Destacado</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="57" t="str">
+      <c r="D9" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E9" s="57" t="str">
+      <c r="E9" s="48" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F9" s="57" t="str">
+      <c r="F9" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G9" s="57" t="str">
+      <c r="G9" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="57" t="str">
+      <c r="D10" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E10" s="57" t="str">
+      <c r="E10" s="48" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F10" s="57" t="str">
+      <c r="F10" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G10" s="57" t="str">
+      <c r="G10" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="57" t="str">
+      <c r="D11" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E11" s="57" t="str">
+      <c r="E11" s="48" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F11" s="57" t="str">
+      <c r="F11" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G11" s="57" t="str">
+      <c r="G11" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="57" t="str">
+      <c r="D12" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E12" s="57" t="str">
+      <c r="E12" s="48" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F12" s="57" t="str">
+      <c r="F12" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G12" s="57" t="str">
+      <c r="G12" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="57" t="str">
+      <c r="D13" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E13" s="57" t="str">
+      <c r="E13" s="48" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F13" s="57" t="str">
+      <c r="F13" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G13" s="57" t="str">
+      <c r="G13" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="57" t="str">
+      <c r="D14" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E14" s="57" t="str">
+      <c r="E14" s="48" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F14" s="57" t="str">
+      <c r="F14" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G14" s="57" t="str">
+      <c r="G14" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="57" t="str">
+      <c r="D15" s="48" t="str">
         <f t="shared" si="0"/>
         <v>APROBADO</v>
       </c>
-      <c r="E15" s="57" t="str">
+      <c r="E15" s="48" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F15" s="57" t="str">
+      <c r="F15" s="48" t="str">
         <f t="shared" si="2"/>
         <v>PROMEDIO</v>
       </c>
-      <c r="G15" s="57" t="str">
+      <c r="G15" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="57" t="str">
+      <c r="D16" s="48" t="str">
         <f t="shared" si="0"/>
         <v>REPROBADO</v>
       </c>
-      <c r="E16" s="57" t="str">
+      <c r="E16" s="48" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="F16" s="57" t="str">
+      <c r="F16" s="48" t="str">
         <f t="shared" si="2"/>
         <v>ATIPICO</v>
       </c>
-      <c r="G16" s="57" t="str">
+      <c r="G16" s="48" t="str">
         <f t="shared" si="3"/>
         <v>Ninguno</v>
       </c>
@@ -9968,8 +9936,8 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10030,7 +9998,6 @@
       <c r="H2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="11"/>
       <c r="M2" s="2" t="s">
         <v>117</v>
       </c>
@@ -10051,7 +10018,7 @@
       <c r="E3" s="8">
         <v>784</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="3"/>
       <c r="M3" s="2" t="s">
         <v>118</v>
@@ -10073,7 +10040,7 @@
       <c r="E4" s="8">
         <v>6732</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>189</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -10096,7 +10063,7 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="40">
         <f>SUMIF(A:A,$H$2,D:D)</f>
         <v>620</v>
       </c>
@@ -10134,13 +10101,13 @@
       <c r="E7" s="8">
         <v>3876</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10160,18 +10127,18 @@
       <c r="E8" s="8">
         <v>10030</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="40">
         <f>SUMIFS($D:$D,$A:$A,$H$2,$C:$C,$G8)</f>
         <v>166</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="51">
         <f>SUMIFS($E:$E,$A:$A,$H$2,$C:$C,$G8)</f>
         <v>10015</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="40">
         <f>COUNTIFS($A:$A,$H$2,$C:$C,$G8)</f>
         <v>3</v>
       </c>
@@ -10192,18 +10159,18 @@
       <c r="E9" s="8">
         <v>2340</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="40">
         <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D,$A:$A,$H$2,$C:$C,$G9)</f>
         <v>372</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="51">
         <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E,$A:$A,$H$2,$C:$C,$G9)</f>
         <v>42628</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="40">
         <f t="shared" ref="J9:J10" si="2">COUNTIFS($A:$A,$H$2,$C:$C,$G9)</f>
         <v>4</v>
       </c>
@@ -10224,18 +10191,18 @@
       <c r="E10" s="8">
         <v>3960</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="40">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="51">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="40">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -11303,13 +11270,13 @@
       <c r="B1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>196</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -11329,11 +11296,11 @@
       <c r="D2" s="6">
         <v>177884</v>
       </c>
-      <c r="E2" s="59" t="str">
+      <c r="E2" s="50" t="str">
         <f>VLOOKUP(A2,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AL</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="47">
         <f>IFERROR(VLOOKUP(A2&amp;B2,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24477</v>
       </c>
@@ -11351,11 +11318,11 @@
       <c r="D3" s="6">
         <v>12538.64</v>
       </c>
-      <c r="E3" s="59" t="str">
+      <c r="E3" s="50" t="str">
         <f>VLOOKUP(A3,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AK</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="47">
         <f>IFERROR(VLOOKUP(A3&amp;B3,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31027</v>
       </c>
@@ -11373,11 +11340,11 @@
       <c r="D4" s="6">
         <v>102612.64</v>
       </c>
-      <c r="E4" s="59" t="str">
+      <c r="E4" s="50" t="str">
         <f>VLOOKUP(A4,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AZ</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="47">
         <f>IFERROR(VLOOKUP(A4&amp;B4,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25878</v>
       </c>
@@ -11395,11 +11362,11 @@
       <c r="D5" s="6">
         <v>53468</v>
       </c>
-      <c r="E5" s="59" t="str">
+      <c r="E5" s="50" t="str">
         <f>VLOOKUP(A5,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AR</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="47">
         <f>IFERROR(VLOOKUP(A5&amp;B5,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>22750</v>
       </c>
@@ -11417,11 +11384,11 @@
       <c r="D6" s="6">
         <v>1016149.44</v>
       </c>
-      <c r="E6" s="59" t="str">
+      <c r="E6" s="50" t="str">
         <f>VLOOKUP(A6,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CA</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="47">
         <f>IFERROR(VLOOKUP(A6&amp;B6,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32655</v>
       </c>
@@ -11439,11 +11406,11 @@
       <c r="D7" s="6">
         <v>172050.44</v>
       </c>
-      <c r="E7" s="59" t="str">
+      <c r="E7" s="50" t="str">
         <f>VLOOKUP(A7,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CO</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="47">
         <f>IFERROR(VLOOKUP(A7&amp;B7,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33455</v>
       </c>
@@ -11461,11 +11428,11 @@
       <c r="D8" s="6">
         <v>102166.95</v>
       </c>
-      <c r="E8" s="59" t="str">
+      <c r="E8" s="50" t="str">
         <f>VLOOKUP(A8,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CT</v>
       </c>
-      <c r="F8" s="56" t="str">
+      <c r="F8" s="47" t="str">
         <f>IFERROR(VLOOKUP(A8&amp;B8,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -11483,11 +11450,11 @@
       <c r="D9" s="6">
         <v>23508</v>
       </c>
-      <c r="E9" s="59" t="str">
+      <c r="E9" s="50" t="str">
         <f>VLOOKUP(A9,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DC</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="47">
         <f>IFERROR(VLOOKUP(A9&amp;B9,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32166</v>
       </c>
@@ -11505,11 +11472,11 @@
       <c r="D10" s="6">
         <v>17161.77</v>
       </c>
-      <c r="E10" s="59" t="str">
+      <c r="E10" s="50" t="str">
         <f>VLOOKUP(A10,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DE</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="47">
         <f>IFERROR(VLOOKUP(A10&amp;B10,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>40539</v>
       </c>
@@ -11527,11 +11494,11 @@
       <c r="D11" s="6">
         <v>319647.56</v>
       </c>
-      <c r="E11" s="59" t="str">
+      <c r="E11" s="50" t="str">
         <f>VLOOKUP(A11,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>FL</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="47">
         <f>IFERROR(VLOOKUP(A11&amp;B11,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29048</v>
       </c>
@@ -11549,11 +11516,11 @@
       <c r="D12" s="6">
         <v>245593.59</v>
       </c>
-      <c r="E12" s="59" t="str">
+      <c r="E12" s="50" t="str">
         <f>VLOOKUP(A12,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>GA</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="47">
         <f>IFERROR(VLOOKUP(A12&amp;B12,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28523</v>
       </c>
@@ -11571,11 +11538,11 @@
       <c r="D13" s="6">
         <v>48461.48</v>
       </c>
-      <c r="E13" s="59" t="str">
+      <c r="E13" s="50" t="str">
         <f>VLOOKUP(A13,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>HI</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="47">
         <f>IFERROR(VLOOKUP(A13&amp;B13,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29034</v>
       </c>
@@ -11593,11 +11560,11 @@
       <c r="D14" s="6">
         <v>38818.589999999997</v>
       </c>
-      <c r="E14" s="59" t="str">
+      <c r="E14" s="50" t="str">
         <f>VLOOKUP(A14,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ID</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="47">
         <f>IFERROR(VLOOKUP(A14&amp;B14,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24506</v>
       </c>
@@ -11615,11 +11582,11 @@
       <c r="D15" s="6">
         <v>496771.72000000003</v>
       </c>
-      <c r="E15" s="59" t="str">
+      <c r="E15" s="50" t="str">
         <f>VLOOKUP(A15,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IL</v>
       </c>
-      <c r="F15" s="56" t="str">
+      <c r="F15" s="47" t="str">
         <f>IFERROR(VLOOKUP(A15&amp;B15,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -11637,11 +11604,11 @@
       <c r="D16" s="6">
         <v>243219.4</v>
       </c>
-      <c r="E16" s="59" t="str">
+      <c r="E16" s="50" t="str">
         <f>VLOOKUP(A16,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IN</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="47">
         <f>IFERROR(VLOOKUP(A16&amp;B16,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27522</v>
       </c>
@@ -11659,11 +11626,11 @@
       <c r="D17" s="6">
         <v>58526.48</v>
       </c>
-      <c r="E17" s="59" t="str">
+      <c r="E17" s="50" t="str">
         <f>VLOOKUP(A17,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IA</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="47">
         <f>IFERROR(VLOOKUP(A17&amp;B17,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27225</v>
       </c>
@@ -11681,11 +11648,11 @@
       <c r="D18" s="6">
         <v>107536.72</v>
       </c>
-      <c r="E18" s="59" t="str">
+      <c r="E18" s="50" t="str">
         <f>VLOOKUP(A18,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KS</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="47">
         <f>IFERROR(VLOOKUP(A18&amp;B18,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28432</v>
       </c>
@@ -11703,11 +11670,11 @@
       <c r="D19" s="6">
         <v>161670.76</v>
       </c>
-      <c r="E19" s="59" t="str">
+      <c r="E19" s="50" t="str">
         <f>VLOOKUP(A19,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KY</v>
       </c>
-      <c r="F19" s="56" t="str">
+      <c r="F19" s="47" t="str">
         <f>IFERROR(VLOOKUP(A19&amp;B19,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -11725,11 +11692,11 @@
       <c r="D20" s="6">
         <v>89379.520000000004</v>
       </c>
-      <c r="E20" s="59" t="str">
+      <c r="E20" s="50" t="str">
         <f>VLOOKUP(A20,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>LA</v>
       </c>
-      <c r="F20" s="56" t="str">
+      <c r="F20" s="47" t="str">
         <f>IFERROR(VLOOKUP(A20&amp;B20,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -11747,11 +11714,11 @@
       <c r="D21" s="6">
         <v>38247.689999999995</v>
       </c>
-      <c r="E21" s="59" t="str">
+      <c r="E21" s="50" t="str">
         <f>VLOOKUP(A21,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ME</v>
       </c>
-      <c r="F21" s="56" t="str">
+      <c r="F21" s="47" t="str">
         <f>IFERROR(VLOOKUP(A21&amp;B21,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -11769,11 +11736,11 @@
       <c r="D22" s="6">
         <v>158894.57999999999</v>
       </c>
-      <c r="E22" s="59" t="str">
+      <c r="E22" s="50" t="str">
         <f>VLOOKUP(A22,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MD</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="47">
         <f>IFERROR(VLOOKUP(A22&amp;B22,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>35279</v>
       </c>
@@ -11791,11 +11758,11 @@
       <c r="D23" s="6">
         <v>253963.88</v>
       </c>
-      <c r="E23" s="59" t="str">
+      <c r="E23" s="50" t="str">
         <f>VLOOKUP(A23,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MA</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="47">
         <f>IFERROR(VLOOKUP(A23&amp;B23,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>38864</v>
       </c>
@@ -11813,11 +11780,11 @@
       <c r="D24" s="6">
         <v>198768.88</v>
       </c>
-      <c r="E24" s="59" t="str">
+      <c r="E24" s="50" t="str">
         <f>VLOOKUP(A24,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MI</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="47">
         <f>IFERROR(VLOOKUP(A24&amp;B24,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29629</v>
       </c>
@@ -11835,11 +11802,11 @@
       <c r="D25" s="6">
         <v>196779.16</v>
       </c>
-      <c r="E25" s="59" t="str">
+      <c r="E25" s="50" t="str">
         <f>VLOOKUP(A25,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MN</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="47">
         <f>IFERROR(VLOOKUP(A25&amp;B25,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33059</v>
       </c>
@@ -11857,11 +11824,11 @@
       <c r="D26" s="6">
         <v>85339.739999999991</v>
       </c>
-      <c r="E26" s="59" t="str">
+      <c r="E26" s="50" t="str">
         <f>VLOOKUP(A26,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MS</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="47">
         <f>IFERROR(VLOOKUP(A26&amp;B26,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>21653</v>
       </c>
@@ -11879,11 +11846,11 @@
       <c r="D27" s="6">
         <v>111904.22</v>
       </c>
-      <c r="E27" s="59" t="str">
+      <c r="E27" s="50" t="str">
         <f>VLOOKUP(A27,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MO</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="47">
         <f>IFERROR(VLOOKUP(A27&amp;B27,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28221</v>
       </c>
@@ -11901,11 +11868,11 @@
       <c r="D28" s="6">
         <v>36087.800000000003</v>
       </c>
-      <c r="E28" s="59" t="str">
+      <c r="E28" s="50" t="str">
         <f>VLOOKUP(A28,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MT</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="47">
         <f>IFERROR(VLOOKUP(A28&amp;B28,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24044</v>
       </c>
@@ -11923,11 +11890,11 @@
       <c r="D29" s="6">
         <v>51337.89</v>
       </c>
-      <c r="E29" s="59" t="str">
+      <c r="E29" s="50" t="str">
         <f>VLOOKUP(A29,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NE</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="47">
         <f>IFERROR(VLOOKUP(A29&amp;B29,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28861</v>
       </c>
@@ -11945,11 +11912,11 @@
       <c r="D30" s="6">
         <v>79930.28</v>
       </c>
-      <c r="E30" s="59" t="str">
+      <c r="E30" s="50" t="str">
         <f>VLOOKUP(A30,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NV</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="47">
         <f>IFERROR(VLOOKUP(A30&amp;B30,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30128</v>
       </c>
@@ -11967,11 +11934,11 @@
       <c r="D31" s="6">
         <v>37073.58</v>
       </c>
-      <c r="E31" s="59" t="str">
+      <c r="E31" s="50" t="str">
         <f>VLOOKUP(A31,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NH</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="47">
         <f>IFERROR(VLOOKUP(A31&amp;B31,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33969</v>
       </c>
@@ -11989,11 +11956,11 @@
       <c r="D32" s="6">
         <v>336574</v>
       </c>
-      <c r="E32" s="59" t="str">
+      <c r="E32" s="50" t="str">
         <f>VLOOKUP(A32,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NJ</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="47">
         <f>IFERROR(VLOOKUP(A32&amp;B32,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>38625</v>
       </c>
@@ -12011,11 +11978,11 @@
       <c r="D33" s="6">
         <v>54571.38</v>
       </c>
-      <c r="E33" s="59" t="str">
+      <c r="E33" s="50" t="str">
         <f>VLOOKUP(A33,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NM</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="47">
         <f>IFERROR(VLOOKUP(A33&amp;B33,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>23081</v>
       </c>
@@ -12033,11 +12000,11 @@
       <c r="D34" s="6">
         <v>759058.28</v>
       </c>
-      <c r="E34" s="59" t="str">
+      <c r="E34" s="50" t="str">
         <f>VLOOKUP(A34,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NY</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="47">
         <f>IFERROR(VLOOKUP(A34&amp;B34,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>35878</v>
       </c>
@@ -12055,11 +12022,11 @@
       <c r="D35" s="6">
         <v>241479.38999999998</v>
       </c>
-      <c r="E35" s="59" t="str">
+      <c r="E35" s="50" t="str">
         <f>VLOOKUP(A35,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NC</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="47">
         <f>IFERROR(VLOOKUP(A35&amp;B35,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27308</v>
       </c>
@@ -12077,11 +12044,11 @@
       <c r="D36" s="6">
         <v>25688</v>
       </c>
-      <c r="E36" s="59" t="str">
+      <c r="E36" s="50" t="str">
         <f>VLOOKUP(A36,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ND</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="47">
         <f>IFERROR(VLOOKUP(A36&amp;B36,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25798</v>
       </c>
@@ -12099,11 +12066,11 @@
       <c r="D37" s="6">
         <v>227062.80000000002</v>
       </c>
-      <c r="E37" s="59" t="str">
+      <c r="E37" s="50" t="str">
         <f>VLOOKUP(A37,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OH</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="47">
         <f>IFERROR(VLOOKUP(A37&amp;B37,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28699</v>
       </c>
@@ -12121,11 +12088,11 @@
       <c r="D38" s="6">
         <v>69013.08</v>
       </c>
-      <c r="E38" s="59" t="str">
+      <c r="E38" s="50" t="str">
         <f>VLOOKUP(A38,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OK</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="47">
         <f>IFERROR(VLOOKUP(A38&amp;B38,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24945</v>
       </c>
@@ -12143,11 +12110,11 @@
       <c r="D39" s="6">
         <v>68427.98</v>
       </c>
-      <c r="E39" s="59" t="str">
+      <c r="E39" s="50" t="str">
         <f>VLOOKUP(A39,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OR</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="47">
         <f>IFERROR(VLOOKUP(A39&amp;B39,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28222</v>
       </c>
@@ -12165,11 +12132,11 @@
       <c r="D40" s="6">
         <v>245621.08000000002</v>
       </c>
-      <c r="E40" s="59" t="str">
+      <c r="E40" s="50" t="str">
         <f>VLOOKUP(A40,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>PA</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="47">
         <f>IFERROR(VLOOKUP(A40&amp;B40,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30752</v>
       </c>
@@ -12187,11 +12154,11 @@
       <c r="D41" s="6">
         <v>41932.76</v>
       </c>
-      <c r="E41" s="59" t="str">
+      <c r="E41" s="50" t="str">
         <f>VLOOKUP(A41,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>RI</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="47">
         <f>IFERROR(VLOOKUP(A41&amp;B41,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30256</v>
       </c>
@@ -12209,11 +12176,11 @@
       <c r="D42" s="6">
         <v>160480.48000000001</v>
       </c>
-      <c r="E42" s="59" t="str">
+      <c r="E42" s="50" t="str">
         <f>VLOOKUP(A42,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SC</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="47">
         <f>IFERROR(VLOOKUP(A42&amp;B42,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24840</v>
       </c>
@@ -12231,11 +12198,11 @@
       <c r="D43" s="6">
         <v>30193.760000000002</v>
       </c>
-      <c r="E43" s="59" t="str">
+      <c r="E43" s="50" t="str">
         <f>VLOOKUP(A43,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SD</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="47">
         <f>IFERROR(VLOOKUP(A43&amp;B43,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26566</v>
       </c>
@@ -12253,11 +12220,11 @@
       <c r="D44" s="6">
         <v>170678.49</v>
       </c>
-      <c r="E44" s="59" t="str">
+      <c r="E44" s="50" t="str">
         <f>VLOOKUP(A44,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TN</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="47">
         <f>IFERROR(VLOOKUP(A44&amp;B44,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26808</v>
       </c>
@@ -12275,11 +12242,11 @@
       <c r="D45" s="6">
         <v>417036.4</v>
       </c>
-      <c r="E45" s="59" t="str">
+      <c r="E45" s="50" t="str">
         <f>VLOOKUP(A45,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TX</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="47">
         <f>IFERROR(VLOOKUP(A45&amp;B45,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28472</v>
       </c>
@@ -12297,11 +12264,11 @@
       <c r="D46" s="6">
         <v>66995.069999999992</v>
       </c>
-      <c r="E46" s="59" t="str">
+      <c r="E46" s="50" t="str">
         <f>VLOOKUP(A46,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>UT</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="47">
         <f>IFERROR(VLOOKUP(A46&amp;B46,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24033</v>
       </c>
@@ -12319,11 +12286,11 @@
       <c r="D47" s="6">
         <v>18264.809999999998</v>
       </c>
-      <c r="E47" s="59" t="str">
+      <c r="E47" s="50" t="str">
         <f>VLOOKUP(A47,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VT</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="47">
         <f>IFERROR(VLOOKUP(A47&amp;B47,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28756</v>
       </c>
@@ -12341,11 +12308,11 @@
       <c r="D48" s="6">
         <v>212355.44999999998</v>
       </c>
-      <c r="E48" s="59" t="str">
+      <c r="E48" s="50" t="str">
         <f>VLOOKUP(A48,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VA</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="47">
         <f>IFERROR(VLOOKUP(A48&amp;B48,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32338</v>
       </c>
@@ -12363,11 +12330,11 @@
       <c r="D49" s="6">
         <v>176823.63</v>
       </c>
-      <c r="E49" s="59" t="str">
+      <c r="E49" s="50" t="str">
         <f>VLOOKUP(A49,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WA</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="47">
         <f>IFERROR(VLOOKUP(A49&amp;B49,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31976</v>
       </c>
@@ -12385,11 +12352,11 @@
       <c r="D50" s="6">
         <v>72333.759999999995</v>
       </c>
-      <c r="E50" s="59" t="str">
+      <c r="E50" s="50" t="str">
         <f>VLOOKUP(A50,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WV</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="47">
         <f>IFERROR(VLOOKUP(A50&amp;B50,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>22862</v>
       </c>
@@ -12407,11 +12374,11 @@
       <c r="D51" s="6">
         <v>214547</v>
       </c>
-      <c r="E51" s="59" t="str">
+      <c r="E51" s="50" t="str">
         <f>VLOOKUP(A51,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WI</v>
       </c>
-      <c r="F51" s="56">
+      <c r="F51" s="47">
         <f>IFERROR(VLOOKUP(A51&amp;B51,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29196</v>
       </c>
@@ -12429,11 +12396,11 @@
       <c r="D52" s="6">
         <v>19751.28</v>
       </c>
-      <c r="E52" s="59" t="str">
+      <c r="E52" s="50" t="str">
         <f>VLOOKUP(A52,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WY</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52" s="47">
         <f>IFERROR(VLOOKUP(A52&amp;B52,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29587</v>
       </c>
@@ -12451,11 +12418,11 @@
       <c r="D53" s="6">
         <v>135905.46</v>
       </c>
-      <c r="E53" s="59" t="str">
+      <c r="E53" s="50" t="str">
         <f>VLOOKUP(A53,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AL</v>
       </c>
-      <c r="F53" s="56">
+      <c r="F53" s="47">
         <f>IFERROR(VLOOKUP(A53&amp;B53,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25128</v>
       </c>
@@ -12473,11 +12440,11 @@
       <c r="D54" s="6">
         <v>19663.05</v>
       </c>
-      <c r="E54" s="59" t="str">
+      <c r="E54" s="50" t="str">
         <f>VLOOKUP(A54,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AK</v>
       </c>
-      <c r="F54" s="56">
+      <c r="F54" s="47">
         <f>IFERROR(VLOOKUP(A54&amp;B54,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32151</v>
       </c>
@@ -12495,11 +12462,11 @@
       <c r="D55" s="6">
         <v>114876.68000000001</v>
       </c>
-      <c r="E55" s="59" t="str">
+      <c r="E55" s="50" t="str">
         <f>VLOOKUP(A55,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AZ</v>
       </c>
-      <c r="F55" s="56">
+      <c r="F55" s="47">
         <f>IFERROR(VLOOKUP(A55&amp;B55,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26183</v>
       </c>
@@ -12517,11 +12484,11 @@
       <c r="D56" s="6">
         <v>110105.16</v>
       </c>
-      <c r="E56" s="59" t="str">
+      <c r="E56" s="50" t="str">
         <f>VLOOKUP(A56,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AR</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="47">
         <f>IFERROR(VLOOKUP(A56&amp;B56,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>23512</v>
       </c>
@@ -12539,11 +12506,11 @@
       <c r="D57" s="6">
         <v>1076813.97</v>
       </c>
-      <c r="E57" s="59" t="str">
+      <c r="E57" s="50" t="str">
         <f>VLOOKUP(A57,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CA</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="47">
         <f>IFERROR(VLOOKUP(A57&amp;B57,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32996</v>
       </c>
@@ -12561,11 +12528,11 @@
       <c r="D58" s="6">
         <v>138042.09</v>
       </c>
-      <c r="E58" s="59" t="str">
+      <c r="E58" s="50" t="str">
         <f>VLOOKUP(A58,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CO</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58" s="47">
         <f>IFERROR(VLOOKUP(A58&amp;B58,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33276</v>
       </c>
@@ -12583,11 +12550,11 @@
       <c r="D59" s="6">
         <v>140144.16</v>
       </c>
-      <c r="E59" s="59" t="str">
+      <c r="E59" s="50" t="str">
         <f>VLOOKUP(A59,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CT</v>
       </c>
-      <c r="F59" s="56">
+      <c r="F59" s="47">
         <f>IFERROR(VLOOKUP(A59&amp;B59,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>42706</v>
       </c>
@@ -12605,11 +12572,11 @@
       <c r="D60" s="6">
         <v>33214.559999999998</v>
       </c>
-      <c r="E60" s="59" t="str">
+      <c r="E60" s="50" t="str">
         <f>VLOOKUP(A60,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DC</v>
       </c>
-      <c r="F60" s="56" t="str">
+      <c r="F60" s="47" t="str">
         <f>IFERROR(VLOOKUP(A60&amp;B60,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -12627,11 +12594,11 @@
       <c r="D61" s="6">
         <v>16605.689999999999</v>
       </c>
-      <c r="E61" s="59" t="str">
+      <c r="E61" s="50" t="str">
         <f>VLOOKUP(A61,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DE</v>
       </c>
-      <c r="F61" s="56">
+      <c r="F61" s="47">
         <f>IFERROR(VLOOKUP(A61&amp;B61,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>42120</v>
       </c>
@@ -12649,11 +12616,11 @@
       <c r="D62" s="6">
         <v>695886.44000000006</v>
       </c>
-      <c r="E62" s="59" t="str">
+      <c r="E62" s="50" t="str">
         <f>VLOOKUP(A62,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>FL</v>
       </c>
-      <c r="F62" s="56">
+      <c r="F62" s="47">
         <f>IFERROR(VLOOKUP(A62&amp;B62,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29596</v>
       </c>
@@ -12671,11 +12638,11 @@
       <c r="D63" s="6">
         <v>176587.66</v>
       </c>
-      <c r="E63" s="59" t="str">
+      <c r="E63" s="50" t="str">
         <f>VLOOKUP(A63,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>GA</v>
       </c>
-      <c r="F63" s="56">
+      <c r="F63" s="47">
         <f>IFERROR(VLOOKUP(A63&amp;B63,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28821</v>
       </c>
@@ -12693,11 +12660,11 @@
       <c r="D64" s="6">
         <v>50513.599999999999</v>
       </c>
-      <c r="E64" s="59" t="str">
+      <c r="E64" s="50" t="str">
         <f>VLOOKUP(A64,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>HI</v>
       </c>
-      <c r="F64" s="56">
+      <c r="F64" s="47">
         <f>IFERROR(VLOOKUP(A64&amp;B64,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30001</v>
       </c>
@@ -12715,11 +12682,11 @@
       <c r="D65" s="6">
         <v>55730.48</v>
       </c>
-      <c r="E65" s="59" t="str">
+      <c r="E65" s="50" t="str">
         <f>VLOOKUP(A65,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ID</v>
       </c>
-      <c r="F65" s="56">
+      <c r="F65" s="47">
         <f>IFERROR(VLOOKUP(A65&amp;B65,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25057</v>
       </c>
@@ -12737,11 +12704,11 @@
       <c r="D66" s="6">
         <v>381409.01999999996</v>
       </c>
-      <c r="E66" s="59" t="str">
+      <c r="E66" s="50" t="str">
         <f>VLOOKUP(A66,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IL</v>
       </c>
-      <c r="F66" s="56">
+      <c r="F66" s="47">
         <f>IFERROR(VLOOKUP(A66&amp;B66,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33404</v>
       </c>
@@ -12759,11 +12726,11 @@
       <c r="D67" s="6">
         <v>187127.07</v>
       </c>
-      <c r="E67" s="59" t="str">
+      <c r="E67" s="50" t="str">
         <f>VLOOKUP(A67,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IN</v>
       </c>
-      <c r="F67" s="56">
+      <c r="F67" s="47">
         <f>IFERROR(VLOOKUP(A67&amp;B67,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28240</v>
       </c>
@@ -12781,11 +12748,11 @@
       <c r="D68" s="6">
         <v>59089.020000000004</v>
       </c>
-      <c r="E68" s="59" t="str">
+      <c r="E68" s="50" t="str">
         <f>VLOOKUP(A68,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IA</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="47">
         <f>IFERROR(VLOOKUP(A68&amp;B68,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28280</v>
       </c>
@@ -12803,11 +12770,11 @@
       <c r="D69" s="6">
         <v>109420.08</v>
       </c>
-      <c r="E69" s="59" t="str">
+      <c r="E69" s="50" t="str">
         <f>VLOOKUP(A69,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KS</v>
       </c>
-      <c r="F69" s="56">
+      <c r="F69" s="47">
         <f>IFERROR(VLOOKUP(A69&amp;B69,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29141</v>
       </c>
@@ -12825,11 +12792,11 @@
       <c r="D70" s="6">
         <v>124377.65999999999</v>
       </c>
-      <c r="E70" s="59" t="str">
+      <c r="E70" s="50" t="str">
         <f>VLOOKUP(A70,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KY</v>
       </c>
-      <c r="F70" s="56" t="str">
+      <c r="F70" s="47" t="str">
         <f>IFERROR(VLOOKUP(A70&amp;B70,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -12847,11 +12814,11 @@
       <c r="D71" s="6">
         <v>180630.80000000002</v>
       </c>
-      <c r="E71" s="59" t="str">
+      <c r="E71" s="50" t="str">
         <f>VLOOKUP(A71,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>LA</v>
       </c>
-      <c r="F71" s="56">
+      <c r="F71" s="47">
         <f>IFERROR(VLOOKUP(A71&amp;B71,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25446</v>
       </c>
@@ -12869,11 +12836,11 @@
       <c r="D72" s="6">
         <v>52690.12</v>
       </c>
-      <c r="E72" s="59" t="str">
+      <c r="E72" s="50" t="str">
         <f>VLOOKUP(A72,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ME</v>
       </c>
-      <c r="F72" s="56">
+      <c r="F72" s="47">
         <f>IFERROR(VLOOKUP(A72&amp;B72,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27744</v>
       </c>
@@ -12891,11 +12858,11 @@
       <c r="D73" s="6">
         <v>111161.16</v>
       </c>
-      <c r="E73" s="59" t="str">
+      <c r="E73" s="50" t="str">
         <f>VLOOKUP(A73,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MD</v>
       </c>
-      <c r="F73" s="56" t="str">
+      <c r="F73" s="47" t="str">
         <f>IFERROR(VLOOKUP(A73&amp;B73,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -12913,11 +12880,11 @@
       <c r="D74" s="6">
         <v>192495.15</v>
       </c>
-      <c r="E74" s="59" t="str">
+      <c r="E74" s="50" t="str">
         <f>VLOOKUP(A74,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MA</v>
       </c>
-      <c r="F74" s="56">
+      <c r="F74" s="47">
         <f>IFERROR(VLOOKUP(A74&amp;B74,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>39244</v>
       </c>
@@ -12935,11 +12902,11 @@
       <c r="D75" s="6">
         <v>202252.4</v>
       </c>
-      <c r="E75" s="59" t="str">
+      <c r="E75" s="50" t="str">
         <f>VLOOKUP(A75,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MI</v>
       </c>
-      <c r="F75" s="56">
+      <c r="F75" s="47">
         <f>IFERROR(VLOOKUP(A75&amp;B75,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30296</v>
       </c>
@@ -12957,11 +12924,11 @@
       <c r="D76" s="6">
         <v>102019.16</v>
       </c>
-      <c r="E76" s="59" t="str">
+      <c r="E76" s="50" t="str">
         <f>VLOOKUP(A76,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MN</v>
       </c>
-      <c r="F76" s="56">
+      <c r="F76" s="47">
         <f>IFERROR(VLOOKUP(A76&amp;B76,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34071</v>
       </c>
@@ -12979,11 +12946,11 @@
       <c r="D77" s="6">
         <v>58059.32</v>
       </c>
-      <c r="E77" s="59" t="str">
+      <c r="E77" s="50" t="str">
         <f>VLOOKUP(A77,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MS</v>
       </c>
-      <c r="F77" s="56">
+      <c r="F77" s="47">
         <f>IFERROR(VLOOKUP(A77&amp;B77,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>22372</v>
       </c>
@@ -13001,11 +12968,11 @@
       <c r="D78" s="6">
         <v>115092.36</v>
       </c>
-      <c r="E78" s="59" t="str">
+      <c r="E78" s="50" t="str">
         <f>VLOOKUP(A78,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MO</v>
       </c>
-      <c r="F78" s="56">
+      <c r="F78" s="47">
         <f>IFERROR(VLOOKUP(A78&amp;B78,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28936</v>
       </c>
@@ -13023,11 +12990,11 @@
       <c r="D79" s="6">
         <v>27805.95</v>
       </c>
-      <c r="E79" s="59" t="str">
+      <c r="E79" s="50" t="str">
         <f>VLOOKUP(A79,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MT</v>
       </c>
-      <c r="F79" s="56">
+      <c r="F79" s="47">
         <f>IFERROR(VLOOKUP(A79&amp;B79,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25020</v>
       </c>
@@ -13045,11 +13012,11 @@
       <c r="D80" s="6">
         <v>69888.56</v>
       </c>
-      <c r="E80" s="59" t="str">
+      <c r="E80" s="50" t="str">
         <f>VLOOKUP(A80,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NE</v>
       </c>
-      <c r="F80" s="56">
+      <c r="F80" s="47">
         <f>IFERROR(VLOOKUP(A80&amp;B80,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29771</v>
       </c>
@@ -13067,11 +13034,11 @@
       <c r="D81" s="6">
         <v>93390.84</v>
       </c>
-      <c r="E81" s="59" t="str">
+      <c r="E81" s="50" t="str">
         <f>VLOOKUP(A81,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NV</v>
       </c>
-      <c r="F81" s="56">
+      <c r="F81" s="47">
         <f>IFERROR(VLOOKUP(A81&amp;B81,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30180</v>
       </c>
@@ -13089,11 +13056,11 @@
       <c r="D82" s="6">
         <v>51980</v>
       </c>
-      <c r="E82" s="59" t="str">
+      <c r="E82" s="50" t="str">
         <f>VLOOKUP(A82,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NH</v>
       </c>
-      <c r="F82" s="56">
+      <c r="F82" s="47">
         <f>IFERROR(VLOOKUP(A82&amp;B82,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34334</v>
       </c>
@@ -13111,11 +13078,11 @@
       <c r="D83" s="6">
         <v>260966.37</v>
       </c>
-      <c r="E83" s="59" t="str">
+      <c r="E83" s="50" t="str">
         <f>VLOOKUP(A83,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NJ</v>
       </c>
-      <c r="F83" s="56">
+      <c r="F83" s="47">
         <f>IFERROR(VLOOKUP(A83&amp;B83,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>39453</v>
       </c>
@@ -13133,11 +13100,11 @@
       <c r="D84" s="6">
         <v>76131.56</v>
       </c>
-      <c r="E84" s="59" t="str">
+      <c r="E84" s="50" t="str">
         <f>VLOOKUP(A84,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NM</v>
       </c>
-      <c r="F84" s="56">
+      <c r="F84" s="47">
         <f>IFERROR(VLOOKUP(A84&amp;B84,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>23941</v>
       </c>
@@ -13155,11 +13122,11 @@
       <c r="D85" s="6">
         <v>576812.64</v>
       </c>
-      <c r="E85" s="59" t="str">
+      <c r="E85" s="50" t="str">
         <f>VLOOKUP(A85,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NY</v>
       </c>
-      <c r="F85" s="56">
+      <c r="F85" s="47">
         <f>IFERROR(VLOOKUP(A85&amp;B85,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>36043</v>
       </c>
@@ -13177,11 +13144,11 @@
       <c r="D86" s="6">
         <v>341648.84</v>
       </c>
-      <c r="E86" s="59" t="str">
+      <c r="E86" s="50" t="str">
         <f>VLOOKUP(A86,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NC</v>
       </c>
-      <c r="F86" s="56">
+      <c r="F86" s="47">
         <f>IFERROR(VLOOKUP(A86&amp;B86,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27711</v>
       </c>
@@ -13199,11 +13166,11 @@
       <c r="D87" s="6">
         <v>19030.98</v>
       </c>
-      <c r="E87" s="59" t="str">
+      <c r="E87" s="50" t="str">
         <f>VLOOKUP(A87,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ND</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="47">
         <f>IFERROR(VLOOKUP(A87&amp;B87,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26982</v>
       </c>
@@ -13221,11 +13188,11 @@
       <c r="D88" s="6">
         <v>343770.33</v>
       </c>
-      <c r="E88" s="59" t="str">
+      <c r="E88" s="50" t="str">
         <f>VLOOKUP(A88,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OH</v>
       </c>
-      <c r="F88" s="56">
+      <c r="F88" s="47">
         <f>IFERROR(VLOOKUP(A88&amp;B88,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29405</v>
       </c>
@@ -13243,11 +13210,11 @@
       <c r="D89" s="6">
         <v>140942.12</v>
       </c>
-      <c r="E89" s="59" t="str">
+      <c r="E89" s="50" t="str">
         <f>VLOOKUP(A89,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OK</v>
       </c>
-      <c r="F89" s="56">
+      <c r="F89" s="47">
         <f>IFERROR(VLOOKUP(A89&amp;B89,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25575</v>
       </c>
@@ -13265,11 +13232,11 @@
       <c r="D90" s="6">
         <v>143783.44</v>
       </c>
-      <c r="E90" s="59" t="str">
+      <c r="E90" s="50" t="str">
         <f>VLOOKUP(A90,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OR</v>
       </c>
-      <c r="F90" s="56">
+      <c r="F90" s="47">
         <f>IFERROR(VLOOKUP(A90&amp;B90,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28731</v>
       </c>
@@ -13287,11 +13254,11 @@
       <c r="D91" s="6">
         <v>496251.68</v>
       </c>
-      <c r="E91" s="59" t="str">
+      <c r="E91" s="50" t="str">
         <f>VLOOKUP(A91,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>PA</v>
       </c>
-      <c r="F91" s="56">
+      <c r="F91" s="47">
         <f>IFERROR(VLOOKUP(A91&amp;B91,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31727</v>
       </c>
@@ -13309,11 +13276,11 @@
       <c r="D92" s="6">
         <v>43225.279999999999</v>
       </c>
-      <c r="E92" s="59" t="str">
+      <c r="E92" s="50" t="str">
         <f>VLOOKUP(A92,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>RI</v>
       </c>
-      <c r="F92" s="56">
+      <c r="F92" s="47">
         <f>IFERROR(VLOOKUP(A92&amp;B92,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31319</v>
       </c>
@@ -13331,11 +13298,11 @@
       <c r="D93" s="6">
         <v>83961.36</v>
       </c>
-      <c r="E93" s="59" t="str">
+      <c r="E93" s="50" t="str">
         <f>VLOOKUP(A93,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SC</v>
       </c>
-      <c r="F93" s="56">
+      <c r="F93" s="47">
         <f>IFERROR(VLOOKUP(A93&amp;B93,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25400</v>
       </c>
@@ -13353,11 +13320,11 @@
       <c r="D94" s="6">
         <v>23126.489999999998</v>
       </c>
-      <c r="E94" s="59" t="str">
+      <c r="E94" s="50" t="str">
         <f>VLOOKUP(A94,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SD</v>
       </c>
-      <c r="F94" s="56">
+      <c r="F94" s="47">
         <f>IFERROR(VLOOKUP(A94&amp;B94,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26894</v>
       </c>
@@ -13375,11 +13342,11 @@
       <c r="D95" s="6">
         <v>118019.24</v>
       </c>
-      <c r="E95" s="59" t="str">
+      <c r="E95" s="50" t="str">
         <f>VLOOKUP(A95,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TN</v>
       </c>
-      <c r="F95" s="56">
+      <c r="F95" s="47">
         <f>IFERROR(VLOOKUP(A95&amp;B95,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27671</v>
       </c>
@@ -13397,11 +13364,11 @@
       <c r="D96" s="6">
         <v>950569.24</v>
       </c>
-      <c r="E96" s="59" t="str">
+      <c r="E96" s="50" t="str">
         <f>VLOOKUP(A96,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TX</v>
       </c>
-      <c r="F96" s="56">
+      <c r="F96" s="47">
         <f>IFERROR(VLOOKUP(A96&amp;B96,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28551</v>
       </c>
@@ -13419,11 +13386,11 @@
       <c r="D97" s="6">
         <v>47780.78</v>
       </c>
-      <c r="E97" s="59" t="str">
+      <c r="E97" s="50" t="str">
         <f>VLOOKUP(A97,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>UT</v>
       </c>
-      <c r="F97" s="56">
+      <c r="F97" s="47">
         <f>IFERROR(VLOOKUP(A97&amp;B97,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24306</v>
       </c>
@@ -13441,11 +13408,11 @@
       <c r="D98" s="6">
         <v>12427.880000000001</v>
       </c>
-      <c r="E98" s="59" t="str">
+      <c r="E98" s="50" t="str">
         <f>VLOOKUP(A98,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VT</v>
       </c>
-      <c r="F98" s="56">
+      <c r="F98" s="47">
         <f>IFERROR(VLOOKUP(A98&amp;B98,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29567</v>
       </c>
@@ -13463,11 +13430,11 @@
       <c r="D99" s="6">
         <v>298393.08</v>
       </c>
-      <c r="E99" s="59" t="str">
+      <c r="E99" s="50" t="str">
         <f>VLOOKUP(A99,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VA</v>
       </c>
-      <c r="F99" s="56">
+      <c r="F99" s="47">
         <f>IFERROR(VLOOKUP(A99&amp;B99,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32922</v>
       </c>
@@ -13485,11 +13452,11 @@
       <c r="D100" s="6">
         <v>124075.76000000001</v>
       </c>
-      <c r="E100" s="59" t="str">
+      <c r="E100" s="50" t="str">
         <f>VLOOKUP(A100,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WA</v>
       </c>
-      <c r="F100" s="56">
+      <c r="F100" s="47">
         <f>IFERROR(VLOOKUP(A100&amp;B100,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32677</v>
       </c>
@@ -13507,11 +13474,11 @@
       <c r="D101" s="6">
         <v>36307.08</v>
       </c>
-      <c r="E101" s="59" t="str">
+      <c r="E101" s="50" t="str">
         <f>VLOOKUP(A101,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WV</v>
       </c>
-      <c r="F101" s="56">
+      <c r="F101" s="47">
         <f>IFERROR(VLOOKUP(A101&amp;B101,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>23688</v>
       </c>
@@ -13529,11 +13496,11 @@
       <c r="D102" s="6">
         <v>220361.04</v>
       </c>
-      <c r="E102" s="59" t="str">
+      <c r="E102" s="50" t="str">
         <f>VLOOKUP(A102,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WI</v>
       </c>
-      <c r="F102" s="56">
+      <c r="F102" s="47">
         <f>IFERROR(VLOOKUP(A102&amp;B102,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29923</v>
       </c>
@@ -13551,11 +13518,11 @@
       <c r="D103" s="6">
         <v>15195.869999999999</v>
       </c>
-      <c r="E103" s="59" t="str">
+      <c r="E103" s="50" t="str">
         <f>VLOOKUP(A103,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WY</v>
       </c>
-      <c r="F103" s="56">
+      <c r="F103" s="47">
         <f>IFERROR(VLOOKUP(A103&amp;B103,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30578</v>
       </c>
@@ -13573,11 +13540,11 @@
       <c r="D104" s="6">
         <v>143392.04999999999</v>
       </c>
-      <c r="E104" s="59" t="str">
+      <c r="E104" s="50" t="str">
         <f>VLOOKUP(A104,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AL</v>
       </c>
-      <c r="F104" s="56">
+      <c r="F104" s="47">
         <f>IFERROR(VLOOKUP(A104&amp;B104,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26338</v>
       </c>
@@ -13595,11 +13562,11 @@
       <c r="D105" s="6">
         <v>14204.62</v>
       </c>
-      <c r="E105" s="59" t="str">
+      <c r="E105" s="50" t="str">
         <f>VLOOKUP(A105,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AK</v>
       </c>
-      <c r="F105" s="56">
+      <c r="F105" s="47">
         <f>IFERROR(VLOOKUP(A105&amp;B105,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33568</v>
       </c>
@@ -13617,11 +13584,11 @@
       <c r="D106" s="6">
         <v>126580.26000000001</v>
       </c>
-      <c r="E106" s="59" t="str">
+      <c r="E106" s="50" t="str">
         <f>VLOOKUP(A106,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AZ</v>
       </c>
-      <c r="F106" s="56">
+      <c r="F106" s="47">
         <f>IFERROR(VLOOKUP(A106&amp;B106,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26838</v>
       </c>
@@ -13639,11 +13606,11 @@
       <c r="D107" s="6">
         <v>58318.42</v>
       </c>
-      <c r="E107" s="59" t="str">
+      <c r="E107" s="50" t="str">
         <f>VLOOKUP(A107,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AR</v>
       </c>
-      <c r="F107" s="56">
+      <c r="F107" s="47">
         <f>IFERROR(VLOOKUP(A107&amp;B107,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24289</v>
       </c>
@@ -13661,11 +13628,11 @@
       <c r="D108" s="6">
         <v>745079.12</v>
       </c>
-      <c r="E108" s="59" t="str">
+      <c r="E108" s="50" t="str">
         <f>VLOOKUP(A108,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CA</v>
       </c>
-      <c r="F108" s="56">
+      <c r="F108" s="47">
         <f>IFERROR(VLOOKUP(A108&amp;B108,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33749</v>
       </c>
@@ -13683,11 +13650,11 @@
       <c r="D109" s="6">
         <v>201167.84</v>
       </c>
-      <c r="E109" s="59" t="str">
+      <c r="E109" s="50" t="str">
         <f>VLOOKUP(A109,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CO</v>
       </c>
-      <c r="F109" s="56">
+      <c r="F109" s="47">
         <f>IFERROR(VLOOKUP(A109&amp;B109,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34283</v>
       </c>
@@ -13705,11 +13672,11 @@
       <c r="D110" s="6">
         <v>142963.88</v>
       </c>
-      <c r="E110" s="59" t="str">
+      <c r="E110" s="50" t="str">
         <f>VLOOKUP(A110,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CT</v>
       </c>
-      <c r="F110" s="56">
+      <c r="F110" s="47">
         <f>IFERROR(VLOOKUP(A110&amp;B110,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>43173</v>
       </c>
@@ -13727,11 +13694,11 @@
       <c r="D111" s="6">
         <v>26938.02</v>
       </c>
-      <c r="E111" s="59" t="str">
+      <c r="E111" s="50" t="str">
         <f>VLOOKUP(A111,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DC</v>
       </c>
-      <c r="F111" s="56" t="str">
+      <c r="F111" s="47" t="str">
         <f>IFERROR(VLOOKUP(A111&amp;B111,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -13749,11 +13716,11 @@
       <c r="D112" s="6">
         <v>18051.689999999999</v>
       </c>
-      <c r="E112" s="59" t="str">
+      <c r="E112" s="50" t="str">
         <f>VLOOKUP(A112,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DE</v>
       </c>
-      <c r="F112" s="56">
+      <c r="F112" s="47">
         <f>IFERROR(VLOOKUP(A112&amp;B112,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>48342</v>
       </c>
@@ -13771,11 +13738,11 @@
       <c r="D113" s="6">
         <v>752052.44000000006</v>
       </c>
-      <c r="E113" s="59" t="str">
+      <c r="E113" s="50" t="str">
         <f>VLOOKUP(A113,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>FL</v>
       </c>
-      <c r="F113" s="56">
+      <c r="F113" s="47">
         <f>IFERROR(VLOOKUP(A113&amp;B113,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30446</v>
       </c>
@@ -13793,11 +13760,11 @@
       <c r="D114" s="6">
         <v>193753.06</v>
       </c>
-      <c r="E114" s="59" t="str">
+      <c r="E114" s="50" t="str">
         <f>VLOOKUP(A114,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>GA</v>
       </c>
-      <c r="F114" s="56">
+      <c r="F114" s="47">
         <f>IFERROR(VLOOKUP(A114&amp;B114,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29442</v>
       </c>
@@ -13815,11 +13782,11 @@
       <c r="D115" s="6">
         <v>54412.04</v>
       </c>
-      <c r="E115" s="59" t="str">
+      <c r="E115" s="50" t="str">
         <f>VLOOKUP(A115,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>HI</v>
       </c>
-      <c r="F115" s="56">
+      <c r="F115" s="47">
         <f>IFERROR(VLOOKUP(A115&amp;B115,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30913</v>
       </c>
@@ -13837,11 +13804,11 @@
       <c r="D116" s="6">
         <v>47027.46</v>
       </c>
-      <c r="E116" s="59" t="str">
+      <c r="E116" s="50" t="str">
         <f>VLOOKUP(A116,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ID</v>
       </c>
-      <c r="F116" s="56" t="str">
+      <c r="F116" s="47" t="str">
         <f>IFERROR(VLOOKUP(A116&amp;B116,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -13859,11 +13826,11 @@
       <c r="D117" s="6">
         <v>256612.64</v>
       </c>
-      <c r="E117" s="59" t="str">
+      <c r="E117" s="50" t="str">
         <f>VLOOKUP(A117,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IL</v>
       </c>
-      <c r="F117" s="56" t="str">
+      <c r="F117" s="47" t="str">
         <f>IFERROR(VLOOKUP(A117&amp;B117,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -13881,11 +13848,11 @@
       <c r="D118" s="6">
         <v>259352</v>
       </c>
-      <c r="E118" s="59" t="str">
+      <c r="E118" s="50" t="str">
         <f>VLOOKUP(A118,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IN</v>
       </c>
-      <c r="F118" s="56">
+      <c r="F118" s="47">
         <f>IFERROR(VLOOKUP(A118&amp;B118,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28783</v>
       </c>
@@ -13903,11 +13870,11 @@
       <c r="D119" s="6">
         <v>60927</v>
       </c>
-      <c r="E119" s="59" t="str">
+      <c r="E119" s="50" t="str">
         <f>VLOOKUP(A119,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IA</v>
       </c>
-      <c r="F119" s="56">
+      <c r="F119" s="47">
         <f>IFERROR(VLOOKUP(A119&amp;B119,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29043</v>
       </c>
@@ -13925,11 +13892,11 @@
       <c r="D120" s="6">
         <v>85593.54</v>
       </c>
-      <c r="E120" s="59" t="str">
+      <c r="E120" s="50" t="str">
         <f>VLOOKUP(A120,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KS</v>
       </c>
-      <c r="F120" s="56">
+      <c r="F120" s="47">
         <f>IFERROR(VLOOKUP(A120&amp;B120,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29935</v>
       </c>
@@ -13947,11 +13914,11 @@
       <c r="D121" s="6">
         <v>130180.86</v>
       </c>
-      <c r="E121" s="59" t="str">
+      <c r="E121" s="50" t="str">
         <f>VLOOKUP(A121,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KY</v>
       </c>
-      <c r="F121" s="56">
+      <c r="F121" s="47">
         <f>IFERROR(VLOOKUP(A121&amp;B121,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26252</v>
       </c>
@@ -13969,11 +13936,11 @@
       <c r="D122" s="6">
         <v>136001.16</v>
       </c>
-      <c r="E122" s="59" t="str">
+      <c r="E122" s="50" t="str">
         <f>VLOOKUP(A122,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>LA</v>
       </c>
-      <c r="F122" s="56">
+      <c r="F122" s="47">
         <f>IFERROR(VLOOKUP(A122&amp;B122,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26100</v>
       </c>
@@ -13991,11 +13958,11 @@
       <c r="D123" s="6">
         <v>26567.22</v>
       </c>
-      <c r="E123" s="59" t="str">
+      <c r="E123" s="50" t="str">
         <f>VLOOKUP(A123,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ME</v>
       </c>
-      <c r="F123" s="56">
+      <c r="F123" s="47">
         <f>IFERROR(VLOOKUP(A123&amp;B123,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28831</v>
       </c>
@@ -14013,11 +13980,11 @@
       <c r="D124" s="6">
         <v>230942.08000000002</v>
       </c>
-      <c r="E124" s="59" t="str">
+      <c r="E124" s="50" t="str">
         <f>VLOOKUP(A124,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MD</v>
       </c>
-      <c r="F124" s="56">
+      <c r="F124" s="47">
         <f>IFERROR(VLOOKUP(A124&amp;B124,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>37331</v>
       </c>
@@ -14035,11 +14002,11 @@
       <c r="D125" s="6">
         <v>130952.58</v>
       </c>
-      <c r="E125" s="59" t="str">
+      <c r="E125" s="50" t="str">
         <f>VLOOKUP(A125,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MA</v>
       </c>
-      <c r="F125" s="56">
+      <c r="F125" s="47">
         <f>IFERROR(VLOOKUP(A125&amp;B125,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>39815</v>
       </c>
@@ -14057,11 +14024,11 @@
       <c r="D126" s="6">
         <v>197672.7</v>
       </c>
-      <c r="E126" s="59" t="str">
+      <c r="E126" s="50" t="str">
         <f>VLOOKUP(A126,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MI</v>
       </c>
-      <c r="F126" s="56">
+      <c r="F126" s="47">
         <f>IFERROR(VLOOKUP(A126&amp;B126,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30439</v>
       </c>
@@ -14079,11 +14046,11 @@
       <c r="D127" s="6">
         <v>106078.5</v>
       </c>
-      <c r="E127" s="59" t="str">
+      <c r="E127" s="50" t="str">
         <f>VLOOKUP(A127,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MN</v>
       </c>
-      <c r="F127" s="56">
+      <c r="F127" s="47">
         <f>IFERROR(VLOOKUP(A127&amp;B127,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34443</v>
       </c>
@@ -14101,11 +14068,11 @@
       <c r="D128" s="6">
         <v>89018.91</v>
       </c>
-      <c r="E128" s="59" t="str">
+      <c r="E128" s="50" t="str">
         <f>VLOOKUP(A128,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MS</v>
       </c>
-      <c r="F128" s="56">
+      <c r="F128" s="47">
         <f>IFERROR(VLOOKUP(A128&amp;B128,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>23448</v>
       </c>
@@ -14123,11 +14090,11 @@
       <c r="D129" s="6">
         <v>119778.54000000001</v>
       </c>
-      <c r="E129" s="59" t="str">
+      <c r="E129" s="50" t="str">
         <f>VLOOKUP(A129,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MO</v>
       </c>
-      <c r="F129" s="56">
+      <c r="F129" s="47">
         <f>IFERROR(VLOOKUP(A129&amp;B129,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29252</v>
       </c>
@@ -14145,11 +14112,11 @@
       <c r="D130" s="6">
         <v>29682.449999999997</v>
       </c>
-      <c r="E130" s="59" t="str">
+      <c r="E130" s="50" t="str">
         <f>VLOOKUP(A130,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MT</v>
       </c>
-      <c r="F130" s="56">
+      <c r="F130" s="47">
         <f>IFERROR(VLOOKUP(A130&amp;B130,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25920</v>
       </c>
@@ -14167,11 +14134,11 @@
       <c r="D131" s="6">
         <v>36526.82</v>
       </c>
-      <c r="E131" s="59" t="str">
+      <c r="E131" s="50" t="str">
         <f>VLOOKUP(A131,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NE</v>
       </c>
-      <c r="F131" s="56">
+      <c r="F131" s="47">
         <f>IFERROR(VLOOKUP(A131&amp;B131,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30758</v>
       </c>
@@ -14189,11 +14156,11 @@
       <c r="D132" s="6">
         <v>81016.53</v>
       </c>
-      <c r="E132" s="59" t="str">
+      <c r="E132" s="50" t="str">
         <f>VLOOKUP(A132,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NV</v>
       </c>
-      <c r="F132" s="56">
+      <c r="F132" s="47">
         <f>IFERROR(VLOOKUP(A132&amp;B132,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31266</v>
       </c>
@@ -14211,11 +14178,11 @@
       <c r="D133" s="6">
         <v>26329.440000000002</v>
       </c>
-      <c r="E133" s="59" t="str">
+      <c r="E133" s="50" t="str">
         <f>VLOOKUP(A133,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NH</v>
       </c>
-      <c r="F133" s="56">
+      <c r="F133" s="47">
         <f>IFERROR(VLOOKUP(A133&amp;B133,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34702</v>
       </c>
@@ -14233,11 +14200,11 @@
       <c r="D134" s="6">
         <v>263756.82</v>
       </c>
-      <c r="E134" s="59" t="str">
+      <c r="E134" s="50" t="str">
         <f>VLOOKUP(A134,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NJ</v>
       </c>
-      <c r="F134" s="56">
+      <c r="F134" s="47">
         <f>IFERROR(VLOOKUP(A134&amp;B134,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>40427</v>
       </c>
@@ -14255,11 +14222,11 @@
       <c r="D135" s="6">
         <v>61775.399999999994</v>
       </c>
-      <c r="E135" s="59" t="str">
+      <c r="E135" s="50" t="str">
         <f>VLOOKUP(A135,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NM</v>
       </c>
-      <c r="F135" s="56">
+      <c r="F135" s="47">
         <f>IFERROR(VLOOKUP(A135&amp;B135,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25541</v>
       </c>
@@ -14277,11 +14244,11 @@
       <c r="D136" s="6">
         <v>387562.08</v>
       </c>
-      <c r="E136" s="59" t="str">
+      <c r="E136" s="50" t="str">
         <f>VLOOKUP(A136,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NY</v>
       </c>
-      <c r="F136" s="56">
+      <c r="F136" s="47">
         <f>IFERROR(VLOOKUP(A136&amp;B136,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>36574</v>
       </c>
@@ -14299,11 +14266,11 @@
       <c r="D137" s="6">
         <v>190709.5</v>
       </c>
-      <c r="E137" s="59" t="str">
+      <c r="E137" s="50" t="str">
         <f>VLOOKUP(A137,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NC</v>
       </c>
-      <c r="F137" s="56">
+      <c r="F137" s="47">
         <f>IFERROR(VLOOKUP(A137&amp;B137,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28235</v>
       </c>
@@ -14321,11 +14288,11 @@
       <c r="D138" s="6">
         <v>20177.73</v>
       </c>
-      <c r="E138" s="59" t="str">
+      <c r="E138" s="50" t="str">
         <f>VLOOKUP(A138,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ND</v>
       </c>
-      <c r="F138" s="56">
+      <c r="F138" s="47">
         <f>IFERROR(VLOOKUP(A138&amp;B138,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29204</v>
       </c>
@@ -14343,11 +14310,11 @@
       <c r="D139" s="6">
         <v>346095.06</v>
       </c>
-      <c r="E139" s="59" t="str">
+      <c r="E139" s="50" t="str">
         <f>VLOOKUP(A139,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OH</v>
       </c>
-      <c r="F139" s="56">
+      <c r="F139" s="47">
         <f>IFERROR(VLOOKUP(A139&amp;B139,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29944</v>
       </c>
@@ -14365,11 +14332,11 @@
       <c r="D140" s="6">
         <v>112540.62</v>
       </c>
-      <c r="E140" s="59" t="str">
+      <c r="E140" s="50" t="str">
         <f>VLOOKUP(A140,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OK</v>
       </c>
-      <c r="F140" s="56">
+      <c r="F140" s="47">
         <f>IFERROR(VLOOKUP(A140&amp;B140,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26656</v>
       </c>
@@ -14387,11 +14354,11 @@
       <c r="D141" s="6">
         <v>114932.22</v>
       </c>
-      <c r="E141" s="59" t="str">
+      <c r="E141" s="50" t="str">
         <f>VLOOKUP(A141,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OR</v>
       </c>
-      <c r="F141" s="56">
+      <c r="F141" s="47">
         <f>IFERROR(VLOOKUP(A141&amp;B141,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29340</v>
       </c>
@@ -14409,11 +14376,11 @@
       <c r="D142" s="6">
         <v>254047.58000000002</v>
       </c>
-      <c r="E142" s="59" t="str">
+      <c r="E142" s="50" t="str">
         <f>VLOOKUP(A142,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>PA</v>
       </c>
-      <c r="F142" s="56">
+      <c r="F142" s="47">
         <f>IFERROR(VLOOKUP(A142&amp;B142,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31998</v>
       </c>
@@ -14431,11 +14398,11 @@
       <c r="D143" s="6">
         <v>42102.68</v>
       </c>
-      <c r="E143" s="59" t="str">
+      <c r="E143" s="50" t="str">
         <f>VLOOKUP(A143,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>RI</v>
       </c>
-      <c r="F143" s="56">
+      <c r="F143" s="47">
         <f>IFERROR(VLOOKUP(A143&amp;B143,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31916</v>
       </c>
@@ -14453,11 +14420,11 @@
       <c r="D144" s="6">
         <v>138760.91999999998</v>
       </c>
-      <c r="E144" s="59" t="str">
+      <c r="E144" s="50" t="str">
         <f>VLOOKUP(A144,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SC</v>
       </c>
-      <c r="F144" s="56">
+      <c r="F144" s="47">
         <f>IFERROR(VLOOKUP(A144&amp;B144,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26132</v>
       </c>
@@ -14475,11 +14442,11 @@
       <c r="D145" s="6">
         <v>24425.399999999998</v>
       </c>
-      <c r="E145" s="59" t="str">
+      <c r="E145" s="50" t="str">
         <f>VLOOKUP(A145,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SD</v>
       </c>
-      <c r="F145" s="56">
+      <c r="F145" s="47">
         <f>IFERROR(VLOOKUP(A145&amp;B145,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29234</v>
       </c>
@@ -14497,11 +14464,11 @@
       <c r="D146" s="6">
         <v>253844.4</v>
       </c>
-      <c r="E146" s="59" t="str">
+      <c r="E146" s="50" t="str">
         <f>VLOOKUP(A146,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TN</v>
       </c>
-      <c r="F146" s="56">
+      <c r="F146" s="47">
         <f>IFERROR(VLOOKUP(A146&amp;B146,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28455</v>
       </c>
@@ -14519,11 +14486,11 @@
       <c r="D147" s="6">
         <v>754366.83</v>
       </c>
-      <c r="E147" s="59" t="str">
+      <c r="E147" s="50" t="str">
         <f>VLOOKUP(A147,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TX</v>
       </c>
-      <c r="F147" s="56">
+      <c r="F147" s="47">
         <f>IFERROR(VLOOKUP(A147&amp;B147,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29372</v>
       </c>
@@ -14541,11 +14508,11 @@
       <c r="D148" s="6">
         <v>55277.700000000004</v>
       </c>
-      <c r="E148" s="59" t="str">
+      <c r="E148" s="50" t="str">
         <f>VLOOKUP(A148,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>UT</v>
       </c>
-      <c r="F148" s="56">
+      <c r="F148" s="47">
         <f>IFERROR(VLOOKUP(A148&amp;B148,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24977</v>
       </c>
@@ -14563,11 +14530,11 @@
       <c r="D149" s="6">
         <v>12514.82</v>
       </c>
-      <c r="E149" s="59" t="str">
+      <c r="E149" s="50" t="str">
         <f>VLOOKUP(A149,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VT</v>
       </c>
-      <c r="F149" s="56">
+      <c r="F149" s="47">
         <f>IFERROR(VLOOKUP(A149&amp;B149,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30740</v>
       </c>
@@ -14585,11 +14552,11 @@
       <c r="D150" s="6">
         <v>240030.72</v>
       </c>
-      <c r="E150" s="59" t="str">
+      <c r="E150" s="50" t="str">
         <f>VLOOKUP(A150,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VA</v>
       </c>
-      <c r="F150" s="56">
+      <c r="F150" s="47">
         <f>IFERROR(VLOOKUP(A150&amp;B150,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33671</v>
       </c>
@@ -14607,11 +14574,11 @@
       <c r="D151" s="6">
         <v>268981.59999999998</v>
       </c>
-      <c r="E151" s="59" t="str">
+      <c r="E151" s="50" t="str">
         <f>VLOOKUP(A151,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WA</v>
       </c>
-      <c r="F151" s="56">
+      <c r="F151" s="47">
         <f>IFERROR(VLOOKUP(A151&amp;B151,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33332</v>
       </c>
@@ -14629,11 +14596,11 @@
       <c r="D152" s="6">
         <v>37059.919999999998</v>
       </c>
-      <c r="E152" s="59" t="str">
+      <c r="E152" s="50" t="str">
         <f>VLOOKUP(A152,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WV</v>
       </c>
-      <c r="F152" s="56">
+      <c r="F152" s="47">
         <f>IFERROR(VLOOKUP(A152&amp;B152,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24379</v>
       </c>
@@ -14651,11 +14618,11 @@
       <c r="D153" s="6">
         <v>113739.72</v>
       </c>
-      <c r="E153" s="59" t="str">
+      <c r="E153" s="50" t="str">
         <f>VLOOKUP(A153,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WI</v>
       </c>
-      <c r="F153" s="56">
+      <c r="F153" s="47">
         <f>IFERROR(VLOOKUP(A153&amp;B153,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30898</v>
       </c>
@@ -14673,11 +14640,11 @@
       <c r="D154" s="6">
         <v>11272.52</v>
       </c>
-      <c r="E154" s="59" t="str">
+      <c r="E154" s="50" t="str">
         <f>VLOOKUP(A154,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WY</v>
       </c>
-      <c r="F154" s="56">
+      <c r="F154" s="47">
         <f>IFERROR(VLOOKUP(A154&amp;B154,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32808</v>
       </c>
@@ -14695,11 +14662,11 @@
       <c r="D155" s="6">
         <v>96440.46</v>
       </c>
-      <c r="E155" s="59" t="str">
+      <c r="E155" s="50" t="str">
         <f>VLOOKUP(A155,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AL</v>
       </c>
-      <c r="F155" s="56">
+      <c r="F155" s="47">
         <f>IFERROR(VLOOKUP(A155&amp;B155,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29136</v>
       </c>
@@ -14717,11 +14684,11 @@
       <c r="D156" s="6">
         <v>14628.98</v>
       </c>
-      <c r="E156" s="59" t="str">
+      <c r="E156" s="50" t="str">
         <f>VLOOKUP(A156,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AK</v>
       </c>
-      <c r="F156" s="56">
+      <c r="F156" s="47">
         <f>IFERROR(VLOOKUP(A156&amp;B156,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>35612</v>
       </c>
@@ -14739,11 +14706,11 @@
       <c r="D157" s="6">
         <v>262130.2</v>
       </c>
-      <c r="E157" s="59" t="str">
+      <c r="E157" s="50" t="str">
         <f>VLOOKUP(A157,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AZ</v>
       </c>
-      <c r="F157" s="56">
+      <c r="F157" s="47">
         <f>IFERROR(VLOOKUP(A157&amp;B157,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30267</v>
       </c>
@@ -14761,11 +14728,11 @@
       <c r="D158" s="6">
         <v>88473.93</v>
       </c>
-      <c r="E158" s="59" t="str">
+      <c r="E158" s="50" t="str">
         <f>VLOOKUP(A158,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>AR</v>
       </c>
-      <c r="F158" s="56">
+      <c r="F158" s="47">
         <f>IFERROR(VLOOKUP(A158&amp;B158,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>26874</v>
       </c>
@@ -14783,11 +14750,11 @@
       <c r="D159" s="6">
         <v>1141242.8999999999</v>
       </c>
-      <c r="E159" s="59" t="str">
+      <c r="E159" s="50" t="str">
         <f>VLOOKUP(A159,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CA</v>
       </c>
-      <c r="F159" s="56">
+      <c r="F159" s="47">
         <f>IFERROR(VLOOKUP(A159&amp;B159,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>37036</v>
       </c>
@@ -14805,11 +14772,11 @@
       <c r="D160" s="6">
         <v>155627.46</v>
       </c>
-      <c r="E160" s="59" t="str">
+      <c r="E160" s="50" t="str">
         <f>VLOOKUP(A160,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CO</v>
       </c>
-      <c r="F160" s="56">
+      <c r="F160" s="47">
         <f>IFERROR(VLOOKUP(A160&amp;B160,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>37946</v>
       </c>
@@ -14827,11 +14794,11 @@
       <c r="D161" s="6">
         <v>71806.94</v>
       </c>
-      <c r="E161" s="59" t="str">
+      <c r="E161" s="50" t="str">
         <f>VLOOKUP(A161,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>CT</v>
       </c>
-      <c r="F161" s="56">
+      <c r="F161" s="47">
         <f>IFERROR(VLOOKUP(A161&amp;B161,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>47819</v>
       </c>
@@ -14849,11 +14816,11 @@
       <c r="D162" s="6">
         <v>18341.84</v>
       </c>
-      <c r="E162" s="59" t="str">
+      <c r="E162" s="50" t="str">
         <f>VLOOKUP(A162,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DC</v>
       </c>
-      <c r="F162" s="56">
+      <c r="F162" s="47">
         <f>IFERROR(VLOOKUP(A162&amp;B162,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>37065</v>
       </c>
@@ -14871,11 +14838,11 @@
       <c r="D163" s="6">
         <v>25292.920000000002</v>
       </c>
-      <c r="E163" s="59" t="str">
+      <c r="E163" s="50" t="str">
         <f>VLOOKUP(A163,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>DE</v>
       </c>
-      <c r="F163" s="56">
+      <c r="F163" s="47">
         <f>IFERROR(VLOOKUP(A163&amp;B163,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>54985</v>
       </c>
@@ -14893,11 +14860,11 @@
       <c r="D164" s="6">
         <v>579527.03999999992</v>
       </c>
-      <c r="E164" s="59" t="str">
+      <c r="E164" s="50" t="str">
         <f>VLOOKUP(A164,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>FL</v>
       </c>
-      <c r="F164" s="56">
+      <c r="F164" s="47">
         <f>IFERROR(VLOOKUP(A164&amp;B164,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33219</v>
       </c>
@@ -14915,11 +14882,11 @@
       <c r="D165" s="6">
         <v>396797.8</v>
       </c>
-      <c r="E165" s="59" t="str">
+      <c r="E165" s="50" t="str">
         <f>VLOOKUP(A165,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>GA</v>
       </c>
-      <c r="F165" s="56">
+      <c r="F165" s="47">
         <f>IFERROR(VLOOKUP(A165&amp;B165,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31121</v>
       </c>
@@ -14937,11 +14904,11 @@
       <c r="D166" s="6">
         <v>55692.520000000004</v>
       </c>
-      <c r="E166" s="59" t="str">
+      <c r="E166" s="50" t="str">
         <f>VLOOKUP(A166,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>HI</v>
       </c>
-      <c r="F166" s="56">
+      <c r="F166" s="47">
         <f>IFERROR(VLOOKUP(A166&amp;B166,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34539</v>
       </c>
@@ -14959,11 +14926,11 @@
       <c r="D167" s="6">
         <v>31914.560000000001</v>
       </c>
-      <c r="E167" s="59" t="str">
+      <c r="E167" s="50" t="str">
         <f>VLOOKUP(A167,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ID</v>
       </c>
-      <c r="F167" s="56">
+      <c r="F167" s="47">
         <f>IFERROR(VLOOKUP(A167&amp;B167,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28158</v>
       </c>
@@ -14981,11 +14948,11 @@
       <c r="D168" s="6">
         <v>386257.64999999997</v>
       </c>
-      <c r="E168" s="59" t="str">
+      <c r="E168" s="50" t="str">
         <f>VLOOKUP(A168,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IL</v>
       </c>
-      <c r="F168" s="56">
+      <c r="F168" s="47">
         <f>IFERROR(VLOOKUP(A168&amp;B168,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>36120</v>
       </c>
@@ -15003,11 +14970,11 @@
       <c r="D169" s="6">
         <v>261493.36000000002</v>
       </c>
-      <c r="E169" s="59" t="str">
+      <c r="E169" s="50" t="str">
         <f>VLOOKUP(A169,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IN</v>
       </c>
-      <c r="F169" s="56">
+      <c r="F169" s="47">
         <f>IFERROR(VLOOKUP(A169&amp;B169,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31276</v>
       </c>
@@ -15025,11 +14992,11 @@
       <c r="D170" s="6">
         <v>122967.44</v>
       </c>
-      <c r="E170" s="59" t="str">
+      <c r="E170" s="50" t="str">
         <f>VLOOKUP(A170,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>IA</v>
       </c>
-      <c r="F170" s="56">
+      <c r="F170" s="47">
         <f>IFERROR(VLOOKUP(A170&amp;B170,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32315</v>
       </c>
@@ -15047,11 +15014,11 @@
       <c r="D171" s="6">
         <v>86577.15</v>
       </c>
-      <c r="E171" s="59" t="str">
+      <c r="E171" s="50" t="str">
         <f>VLOOKUP(A171,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KS</v>
       </c>
-      <c r="F171" s="56">
+      <c r="F171" s="47">
         <f>IFERROR(VLOOKUP(A171&amp;B171,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32836</v>
       </c>
@@ -15069,11 +15036,11 @@
       <c r="D172" s="6">
         <v>175216.6</v>
       </c>
-      <c r="E172" s="59" t="str">
+      <c r="E172" s="50" t="str">
         <f>VLOOKUP(A172,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>KY</v>
       </c>
-      <c r="F172" s="56">
+      <c r="F172" s="47">
         <f>IFERROR(VLOOKUP(A172&amp;B172,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28513</v>
       </c>
@@ -15091,11 +15058,11 @@
       <c r="D173" s="6">
         <v>92037.86</v>
       </c>
-      <c r="E173" s="59" t="str">
+      <c r="E173" s="50" t="str">
         <f>VLOOKUP(A173,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>LA</v>
       </c>
-      <c r="F173" s="56">
+      <c r="F173" s="47">
         <f>IFERROR(VLOOKUP(A173&amp;B173,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>24820</v>
       </c>
@@ -15113,11 +15080,11 @@
       <c r="D174" s="6">
         <v>39875.760000000002</v>
       </c>
-      <c r="E174" s="59" t="str">
+      <c r="E174" s="50" t="str">
         <f>VLOOKUP(A174,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ME</v>
       </c>
-      <c r="F174" s="56">
+      <c r="F174" s="47">
         <f>IFERROR(VLOOKUP(A174&amp;B174,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31252</v>
       </c>
@@ -15135,11 +15102,11 @@
       <c r="D175" s="6">
         <v>235382.52000000002</v>
       </c>
-      <c r="E175" s="59" t="str">
+      <c r="E175" s="50" t="str">
         <f>VLOOKUP(A175,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MD</v>
       </c>
-      <c r="F175" s="56">
+      <c r="F175" s="47">
         <f>IFERROR(VLOOKUP(A175&amp;B175,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>41760</v>
       </c>
@@ -15157,11 +15124,11 @@
       <c r="D176" s="6">
         <v>265845.76000000001</v>
       </c>
-      <c r="E176" s="59" t="str">
+      <c r="E176" s="50" t="str">
         <f>VLOOKUP(A176,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MA</v>
       </c>
-      <c r="F176" s="56">
+      <c r="F176" s="47">
         <f>IFERROR(VLOOKUP(A176&amp;B176,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>44289</v>
       </c>
@@ -15179,11 +15146,11 @@
       <c r="D177" s="6">
         <v>296500.8</v>
       </c>
-      <c r="E177" s="59" t="str">
+      <c r="E177" s="50" t="str">
         <f>VLOOKUP(A177,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MI</v>
       </c>
-      <c r="F177" s="56">
+      <c r="F177" s="47">
         <f>IFERROR(VLOOKUP(A177&amp;B177,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33116</v>
       </c>
@@ -15201,11 +15168,11 @@
       <c r="D178" s="6">
         <v>107582.78</v>
       </c>
-      <c r="E178" s="59" t="str">
+      <c r="E178" s="50" t="str">
         <f>VLOOKUP(A178,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MN</v>
       </c>
-      <c r="F178" s="56">
+      <c r="F178" s="47">
         <f>IFERROR(VLOOKUP(A178&amp;B178,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>37373</v>
       </c>
@@ -15223,11 +15190,11 @@
       <c r="D179" s="6">
         <v>119397.04000000001</v>
       </c>
-      <c r="E179" s="59" t="str">
+      <c r="E179" s="50" t="str">
         <f>VLOOKUP(A179,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MS</v>
       </c>
-      <c r="F179" s="56">
+      <c r="F179" s="47">
         <f>IFERROR(VLOOKUP(A179&amp;B179,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>25318</v>
       </c>
@@ -15245,11 +15212,11 @@
       <c r="D180" s="6">
         <v>120439.76000000001</v>
       </c>
-      <c r="E180" s="59" t="str">
+      <c r="E180" s="50" t="str">
         <f>VLOOKUP(A180,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MO</v>
       </c>
-      <c r="F180" s="56">
+      <c r="F180" s="47">
         <f>IFERROR(VLOOKUP(A180&amp;B180,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31899</v>
       </c>
@@ -15267,11 +15234,11 @@
       <c r="D181" s="6">
         <v>40205.64</v>
       </c>
-      <c r="E181" s="59" t="str">
+      <c r="E181" s="50" t="str">
         <f>VLOOKUP(A181,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>MT</v>
       </c>
-      <c r="F181" s="56">
+      <c r="F181" s="47">
         <f>IFERROR(VLOOKUP(A181&amp;B181,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29387</v>
       </c>
@@ -15289,11 +15256,11 @@
       <c r="D182" s="6">
         <v>55665.75</v>
       </c>
-      <c r="E182" s="59" t="str">
+      <c r="E182" s="50" t="str">
         <f>VLOOKUP(A182,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NE</v>
       </c>
-      <c r="F182" s="56">
+      <c r="F182" s="47">
         <f>IFERROR(VLOOKUP(A182&amp;B182,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33616</v>
       </c>
@@ -15311,11 +15278,11 @@
       <c r="D183" s="6">
         <v>110357.24</v>
       </c>
-      <c r="E183" s="59" t="str">
+      <c r="E183" s="50" t="str">
         <f>VLOOKUP(A183,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NV</v>
       </c>
-      <c r="F183" s="56" t="str">
+      <c r="F183" s="47" t="str">
         <f>IFERROR(VLOOKUP(A183&amp;B183,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -15333,11 +15300,11 @@
       <c r="D184" s="6">
         <v>52828.72</v>
       </c>
-      <c r="E184" s="59" t="str">
+      <c r="E184" s="50" t="str">
         <f>VLOOKUP(A184,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NH</v>
       </c>
-      <c r="F184" s="56">
+      <c r="F184" s="47">
         <f>IFERROR(VLOOKUP(A184&amp;B184,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>38408</v>
       </c>
@@ -15355,11 +15322,11 @@
       <c r="D185" s="6">
         <v>177291.80000000002</v>
       </c>
-      <c r="E185" s="59" t="str">
+      <c r="E185" s="50" t="str">
         <f>VLOOKUP(A185,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NJ</v>
       </c>
-      <c r="F185" s="56" t="str">
+      <c r="F185" s="47" t="str">
         <f>IFERROR(VLOOKUP(A185&amp;B185,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -15377,11 +15344,11 @@
       <c r="D186" s="6">
         <v>83421.52</v>
       </c>
-      <c r="E186" s="59" t="str">
+      <c r="E186" s="50" t="str">
         <f>VLOOKUP(A186,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NM</v>
       </c>
-      <c r="F186" s="56">
+      <c r="F186" s="47">
         <f>IFERROR(VLOOKUP(A186&amp;B186,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27644</v>
       </c>
@@ -15399,11 +15366,11 @@
       <c r="D187" s="6">
         <v>587107.82999999996</v>
       </c>
-      <c r="E187" s="59" t="str">
+      <c r="E187" s="50" t="str">
         <f>VLOOKUP(A187,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NY</v>
       </c>
-      <c r="F187" s="56" t="str">
+      <c r="F187" s="47" t="str">
         <f>IFERROR(VLOOKUP(A187&amp;B187,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -15421,11 +15388,11 @@
       <c r="D188" s="6">
         <v>195041.46</v>
       </c>
-      <c r="E188" s="59" t="str">
+      <c r="E188" s="50" t="str">
         <f>VLOOKUP(A188,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>NC</v>
       </c>
-      <c r="F188" s="56">
+      <c r="F188" s="47">
         <f>IFERROR(VLOOKUP(A188&amp;B188,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>30553</v>
       </c>
@@ -15443,11 +15410,11 @@
       <c r="D189" s="6">
         <v>27985.119999999999</v>
       </c>
-      <c r="E189" s="59" t="str">
+      <c r="E189" s="50" t="str">
         <f>VLOOKUP(A189,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>ND</v>
       </c>
-      <c r="F189" s="56">
+      <c r="F189" s="47">
         <f>IFERROR(VLOOKUP(A189&amp;B189,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31395</v>
       </c>
@@ -15465,11 +15432,11 @@
       <c r="D190" s="6">
         <v>230884.5</v>
       </c>
-      <c r="E190" s="59" t="str">
+      <c r="E190" s="50" t="str">
         <f>VLOOKUP(A190,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OH</v>
       </c>
-      <c r="F190" s="56">
+      <c r="F190" s="47">
         <f>IFERROR(VLOOKUP(A190&amp;B190,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32478</v>
       </c>
@@ -15487,11 +15454,11 @@
       <c r="D191" s="6">
         <v>152592.80000000002</v>
       </c>
-      <c r="E191" s="59" t="str">
+      <c r="E191" s="50" t="str">
         <f>VLOOKUP(A191,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OK</v>
       </c>
-      <c r="F191" s="56">
+      <c r="F191" s="47">
         <f>IFERROR(VLOOKUP(A191&amp;B191,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>29330</v>
       </c>
@@ -15509,11 +15476,11 @@
       <c r="D192" s="6">
         <v>77987.06</v>
       </c>
-      <c r="E192" s="59" t="str">
+      <c r="E192" s="50" t="str">
         <f>VLOOKUP(A192,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>OR</v>
       </c>
-      <c r="F192" s="56">
+      <c r="F192" s="47">
         <f>IFERROR(VLOOKUP(A192&amp;B192,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32103</v>
       </c>
@@ -15531,11 +15498,11 @@
       <c r="D193" s="6">
         <v>382906.07999999996</v>
       </c>
-      <c r="E193" s="59" t="str">
+      <c r="E193" s="50" t="str">
         <f>VLOOKUP(A193,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>PA</v>
       </c>
-      <c r="F193" s="56">
+      <c r="F193" s="47">
         <f>IFERROR(VLOOKUP(A193&amp;B193,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>34897</v>
       </c>
@@ -15553,11 +15520,11 @@
       <c r="D194" s="6">
         <v>31508.76</v>
       </c>
-      <c r="E194" s="59" t="str">
+      <c r="E194" s="50" t="str">
         <f>VLOOKUP(A194,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>RI</v>
       </c>
-      <c r="F194" s="56">
+      <c r="F194" s="47">
         <f>IFERROR(VLOOKUP(A194&amp;B194,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>36153</v>
       </c>
@@ -15575,11 +15542,11 @@
       <c r="D195" s="6">
         <v>141711.69</v>
       </c>
-      <c r="E195" s="59" t="str">
+      <c r="E195" s="50" t="str">
         <f>VLOOKUP(A195,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SC</v>
       </c>
-      <c r="F195" s="56">
+      <c r="F195" s="47">
         <f>IFERROR(VLOOKUP(A195&amp;B195,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>28352</v>
       </c>
@@ -15597,11 +15564,11 @@
       <c r="D196" s="6">
         <v>33334.160000000003</v>
       </c>
-      <c r="E196" s="59" t="str">
+      <c r="E196" s="50" t="str">
         <f>VLOOKUP(A196,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>SD</v>
       </c>
-      <c r="F196" s="56">
+      <c r="F196" s="47">
         <f>IFERROR(VLOOKUP(A196&amp;B196,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31614</v>
       </c>
@@ -15619,11 +15586,11 @@
       <c r="D197" s="6">
         <v>258249.72</v>
       </c>
-      <c r="E197" s="59" t="str">
+      <c r="E197" s="50" t="str">
         <f>VLOOKUP(A197,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TN</v>
       </c>
-      <c r="F197" s="56">
+      <c r="F197" s="47">
         <f>IFERROR(VLOOKUP(A197&amp;B197,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>31107</v>
       </c>
@@ -15641,11 +15608,11 @@
       <c r="D198" s="6">
         <v>1042368.12</v>
       </c>
-      <c r="E198" s="59" t="str">
+      <c r="E198" s="50" t="str">
         <f>VLOOKUP(A198,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>TX</v>
       </c>
-      <c r="F198" s="56">
+      <c r="F198" s="47">
         <f>IFERROR(VLOOKUP(A198&amp;B198,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>32462</v>
       </c>
@@ -15663,11 +15630,11 @@
       <c r="D199" s="6">
         <v>114211.48</v>
       </c>
-      <c r="E199" s="59" t="str">
+      <c r="E199" s="50" t="str">
         <f>VLOOKUP(A199,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>UT</v>
       </c>
-      <c r="F199" s="56" t="str">
+      <c r="F199" s="47" t="str">
         <f>IFERROR(VLOOKUP(A199&amp;B199,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>SIN DATOS</v>
       </c>
@@ -15685,11 +15652,11 @@
       <c r="D200" s="6">
         <v>25040.440000000002</v>
       </c>
-      <c r="E200" s="59" t="str">
+      <c r="E200" s="50" t="str">
         <f>VLOOKUP(A200,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VT</v>
       </c>
-      <c r="F200" s="56">
+      <c r="F200" s="47">
         <f>IFERROR(VLOOKUP(A200&amp;B200,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33327</v>
       </c>
@@ -15707,11 +15674,11 @@
       <c r="D201" s="6">
         <v>163717.34</v>
       </c>
-      <c r="E201" s="59" t="str">
+      <c r="E201" s="50" t="str">
         <f>VLOOKUP(A201,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>VA</v>
       </c>
-      <c r="F201" s="56">
+      <c r="F201" s="47">
         <f>IFERROR(VLOOKUP(A201&amp;B201,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>38390</v>
       </c>
@@ -15729,11 +15696,11 @@
       <c r="D202" s="6">
         <v>137940.24</v>
       </c>
-      <c r="E202" s="59" t="str">
+      <c r="E202" s="50" t="str">
         <f>VLOOKUP(A202,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WA</v>
       </c>
-      <c r="F202" s="56">
+      <c r="F202" s="47">
         <f>IFERROR(VLOOKUP(A202&amp;B202,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>35409</v>
       </c>
@@ -15751,11 +15718,11 @@
       <c r="D203" s="6">
         <v>74216.52</v>
       </c>
-      <c r="E203" s="59" t="str">
+      <c r="E203" s="50" t="str">
         <f>VLOOKUP(A203,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WV</v>
       </c>
-      <c r="F203" s="56">
+      <c r="F203" s="47">
         <f>IFERROR(VLOOKUP(A203&amp;B203,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>27215</v>
       </c>
@@ -15773,11 +15740,11 @@
       <c r="D204" s="6">
         <v>114527.96</v>
       </c>
-      <c r="E204" s="59" t="str">
+      <c r="E204" s="50" t="str">
         <f>VLOOKUP(A204,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WI</v>
       </c>
-      <c r="F204" s="56">
+      <c r="F204" s="47">
         <f>IFERROR(VLOOKUP(A204&amp;B204,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>33565</v>
       </c>
@@ -15795,11 +15762,11 @@
       <c r="D205" s="6">
         <v>11528.24</v>
       </c>
-      <c r="E205" s="59" t="str">
+      <c r="E205" s="50" t="str">
         <f>VLOOKUP(A205,'Abreviaciones de Estados'!$A:$B,2,0)</f>
         <v>WY</v>
       </c>
-      <c r="F205" s="56">
+      <c r="F205" s="47">
         <f>IFERROR(VLOOKUP(A205&amp;B205,'Ingresos por Estado (2001-2004)'!A:D,4,0),"SIN DATOS")</f>
         <v>36778</v>
       </c>
@@ -15836,7 +15803,7 @@
       <c r="A1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -15844,7 +15811,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15852,7 +15819,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -15860,7 +15827,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15868,7 +15835,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -15876,7 +15843,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15884,7 +15851,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15892,7 +15859,7 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -15900,7 +15867,7 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>112</v>
       </c>
     </row>
@@ -15908,7 +15875,7 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15916,7 +15883,7 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15924,7 +15891,7 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15932,7 +15899,7 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>108</v>
       </c>
     </row>
@@ -15940,7 +15907,7 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -15948,7 +15915,7 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -15956,7 +15923,7 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -15964,7 +15931,7 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15972,7 +15939,7 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -15980,7 +15947,7 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>98</v>
       </c>
     </row>
@@ -15988,7 +15955,7 @@
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -15996,7 +15963,7 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16004,7 +15971,7 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -16012,7 +15979,7 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -16020,7 +15987,7 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -16028,7 +15995,7 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -16036,7 +16003,7 @@
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -16044,7 +16011,7 @@
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>87</v>
       </c>
     </row>
@@ -16052,7 +16019,7 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>109</v>
       </c>
     </row>
@@ -16060,7 +16027,7 @@
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>75</v>
       </c>
     </row>
@@ -16068,7 +16035,7 @@
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16076,7 +16043,7 @@
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -16084,7 +16051,7 @@
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -16092,7 +16059,7 @@
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>115</v>
       </c>
     </row>
@@ -16100,7 +16067,7 @@
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -16108,7 +16075,7 @@
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -16116,7 +16083,7 @@
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16124,7 +16091,7 @@
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -16132,7 +16099,7 @@
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -16140,7 +16107,7 @@
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -16148,7 +16115,7 @@
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -16156,7 +16123,7 @@
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -16164,7 +16131,7 @@
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -16172,7 +16139,7 @@
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -16180,7 +16147,7 @@
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -16188,7 +16155,7 @@
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -16196,7 +16163,7 @@
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -16204,7 +16171,7 @@
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -16212,7 +16179,7 @@
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -16220,7 +16187,7 @@
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -16228,7 +16195,7 @@
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>78</v>
       </c>
     </row>
@@ -16236,7 +16203,7 @@
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -16244,7 +16211,7 @@
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16287,7 +16254,7 @@
       <c r="C1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>197</v>
       </c>
     </row>
@@ -16302,7 +16269,7 @@
       <c r="C2" s="2">
         <v>2001</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>24477</v>
       </c>
     </row>
@@ -16317,7 +16284,7 @@
       <c r="C3" s="2">
         <v>2001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>31027</v>
       </c>
     </row>
@@ -16332,7 +16299,7 @@
       <c r="C4" s="2">
         <v>2001</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>25878</v>
       </c>
     </row>
@@ -16347,7 +16314,7 @@
       <c r="C5" s="2">
         <v>2001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>22750</v>
       </c>
     </row>
@@ -16362,7 +16329,7 @@
       <c r="C6" s="2">
         <v>2001</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>32655</v>
       </c>
     </row>
@@ -16377,7 +16344,7 @@
       <c r="C7" s="2">
         <v>2001</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>33455</v>
       </c>
     </row>
@@ -16392,7 +16359,7 @@
       <c r="C8" s="2">
         <v>2001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>32166</v>
       </c>
     </row>
@@ -16407,7 +16374,7 @@
       <c r="C9" s="2">
         <v>2001</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>40539</v>
       </c>
     </row>
@@ -16422,7 +16389,7 @@
       <c r="C10" s="2">
         <v>2001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>29048</v>
       </c>
     </row>
@@ -16437,7 +16404,7 @@
       <c r="C11" s="2">
         <v>2001</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>28523</v>
       </c>
     </row>
@@ -16452,7 +16419,7 @@
       <c r="C12" s="2">
         <v>2001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>29034</v>
       </c>
     </row>
@@ -16467,7 +16434,7 @@
       <c r="C13" s="2">
         <v>2001</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>24506</v>
       </c>
     </row>
@@ -16482,7 +16449,7 @@
       <c r="C14" s="2">
         <v>2001</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>27522</v>
       </c>
     </row>
@@ -16497,7 +16464,7 @@
       <c r="C15" s="2">
         <v>2001</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>27225</v>
       </c>
     </row>
@@ -16512,7 +16479,7 @@
       <c r="C16" s="2">
         <v>2001</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>28432</v>
       </c>
     </row>
@@ -16527,7 +16494,7 @@
       <c r="C17" s="2">
         <v>2001</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>35279</v>
       </c>
     </row>
@@ -16542,7 +16509,7 @@
       <c r="C18" s="2">
         <v>2001</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <v>38864</v>
       </c>
     </row>
@@ -16557,7 +16524,7 @@
       <c r="C19" s="2">
         <v>2001</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>29629</v>
       </c>
     </row>
@@ -16572,7 +16539,7 @@
       <c r="C20" s="2">
         <v>2001</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>33059</v>
       </c>
     </row>
@@ -16587,7 +16554,7 @@
       <c r="C21" s="2">
         <v>2001</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>21653</v>
       </c>
     </row>
@@ -16602,7 +16569,7 @@
       <c r="C22" s="2">
         <v>2001</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>28221</v>
       </c>
     </row>
@@ -16617,7 +16584,7 @@
       <c r="C23" s="2">
         <v>2001</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <v>24044</v>
       </c>
     </row>
@@ -16632,7 +16599,7 @@
       <c r="C24" s="2">
         <v>2001</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>28861</v>
       </c>
     </row>
@@ -16647,7 +16614,7 @@
       <c r="C25" s="2">
         <v>2001</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="18">
         <v>30128</v>
       </c>
     </row>
@@ -16662,7 +16629,7 @@
       <c r="C26" s="2">
         <v>2001</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>33969</v>
       </c>
     </row>
@@ -16677,7 +16644,7 @@
       <c r="C27" s="2">
         <v>2001</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>38625</v>
       </c>
     </row>
@@ -16692,7 +16659,7 @@
       <c r="C28" s="2">
         <v>2001</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>23081</v>
       </c>
     </row>
@@ -16707,7 +16674,7 @@
       <c r="C29" s="2">
         <v>2001</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>35878</v>
       </c>
     </row>
@@ -16722,7 +16689,7 @@
       <c r="C30" s="2">
         <v>2001</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>27308</v>
       </c>
     </row>
@@ -16737,7 +16704,7 @@
       <c r="C31" s="2">
         <v>2001</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>25798</v>
       </c>
     </row>
@@ -16752,7 +16719,7 @@
       <c r="C32" s="2">
         <v>2001</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>28699</v>
       </c>
     </row>
@@ -16767,7 +16734,7 @@
       <c r="C33" s="2">
         <v>2001</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <v>24945</v>
       </c>
     </row>
@@ -16782,7 +16749,7 @@
       <c r="C34" s="2">
         <v>2001</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="18">
         <v>28222</v>
       </c>
     </row>
@@ -16797,7 +16764,7 @@
       <c r="C35" s="2">
         <v>2001</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>30752</v>
       </c>
     </row>
@@ -16812,7 +16779,7 @@
       <c r="C36" s="2">
         <v>2001</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>30256</v>
       </c>
     </row>
@@ -16827,7 +16794,7 @@
       <c r="C37" s="2">
         <v>2001</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>24840</v>
       </c>
     </row>
@@ -16842,7 +16809,7 @@
       <c r="C38" s="2">
         <v>2001</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="18">
         <v>26566</v>
       </c>
     </row>
@@ -16857,7 +16824,7 @@
       <c r="C39" s="2">
         <v>2001</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="18">
         <v>26808</v>
       </c>
     </row>
@@ -16872,7 +16839,7 @@
       <c r="C40" s="2">
         <v>2001</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>28472</v>
       </c>
     </row>
@@ -16887,7 +16854,7 @@
       <c r="C41" s="2">
         <v>2001</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="18">
         <v>24033</v>
       </c>
     </row>
@@ -16902,7 +16869,7 @@
       <c r="C42" s="2">
         <v>2001</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="18">
         <v>28756</v>
       </c>
     </row>
@@ -16917,7 +16884,7 @@
       <c r="C43" s="2">
         <v>2001</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>32338</v>
       </c>
     </row>
@@ -16932,7 +16899,7 @@
       <c r="C44" s="2">
         <v>2001</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>31976</v>
       </c>
     </row>
@@ -16947,7 +16914,7 @@
       <c r="C45" s="2">
         <v>2001</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="18">
         <v>22862</v>
       </c>
     </row>
@@ -16962,7 +16929,7 @@
       <c r="C46" s="2">
         <v>2001</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>29196</v>
       </c>
     </row>
@@ -16977,7 +16944,7 @@
       <c r="C47" s="2">
         <v>2001</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>29587</v>
       </c>
     </row>
@@ -16992,7 +16959,7 @@
       <c r="C48" s="2">
         <v>2002</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <v>25128</v>
       </c>
     </row>
@@ -17007,7 +16974,7 @@
       <c r="C49" s="2">
         <v>2002</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>32151</v>
       </c>
     </row>
@@ -17022,7 +16989,7 @@
       <c r="C50" s="2">
         <v>2002</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>26183</v>
       </c>
     </row>
@@ -17037,7 +17004,7 @@
       <c r="C51" s="2">
         <v>2002</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="18">
         <v>23512</v>
       </c>
     </row>
@@ -17052,7 +17019,7 @@
       <c r="C52" s="2">
         <v>2002</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>32996</v>
       </c>
     </row>
@@ -17067,7 +17034,7 @@
       <c r="C53" s="2">
         <v>2002</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <v>33276</v>
       </c>
     </row>
@@ -17082,7 +17049,7 @@
       <c r="C54" s="2">
         <v>2002</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>42706</v>
       </c>
     </row>
@@ -17097,7 +17064,7 @@
       <c r="C55" s="2">
         <v>2002</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <v>42120</v>
       </c>
     </row>
@@ -17112,7 +17079,7 @@
       <c r="C56" s="2">
         <v>2002</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>29596</v>
       </c>
     </row>
@@ -17127,7 +17094,7 @@
       <c r="C57" s="2">
         <v>2002</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="18">
         <v>28821</v>
       </c>
     </row>
@@ -17142,7 +17109,7 @@
       <c r="C58" s="2">
         <v>2002</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>30001</v>
       </c>
     </row>
@@ -17157,7 +17124,7 @@
       <c r="C59" s="2">
         <v>2002</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>25057</v>
       </c>
     </row>
@@ -17172,7 +17139,7 @@
       <c r="C60" s="2">
         <v>2002</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="18">
         <v>33404</v>
       </c>
     </row>
@@ -17187,7 +17154,7 @@
       <c r="C61" s="2">
         <v>2002</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="18">
         <v>28240</v>
       </c>
     </row>
@@ -17202,7 +17169,7 @@
       <c r="C62" s="2">
         <v>2002</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="18">
         <v>28280</v>
       </c>
     </row>
@@ -17217,7 +17184,7 @@
       <c r="C63" s="2">
         <v>2002</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>29141</v>
       </c>
     </row>
@@ -17232,7 +17199,7 @@
       <c r="C64" s="2">
         <v>2002</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="18">
         <v>25446</v>
       </c>
     </row>
@@ -17247,7 +17214,7 @@
       <c r="C65" s="2">
         <v>2002</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="18">
         <v>27744</v>
       </c>
     </row>
@@ -17262,7 +17229,7 @@
       <c r="C66" s="2">
         <v>2002</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="18">
         <v>39244</v>
       </c>
     </row>
@@ -17277,7 +17244,7 @@
       <c r="C67" s="2">
         <v>2002</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="18">
         <v>30296</v>
       </c>
     </row>
@@ -17292,7 +17259,7 @@
       <c r="C68" s="2">
         <v>2002</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="18">
         <v>34071</v>
       </c>
     </row>
@@ -17307,7 +17274,7 @@
       <c r="C69" s="2">
         <v>2002</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="18">
         <v>22372</v>
       </c>
     </row>
@@ -17322,7 +17289,7 @@
       <c r="C70" s="2">
         <v>2002</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="18">
         <v>28936</v>
       </c>
     </row>
@@ -17337,7 +17304,7 @@
       <c r="C71" s="2">
         <v>2002</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="18">
         <v>25020</v>
       </c>
     </row>
@@ -17352,7 +17319,7 @@
       <c r="C72" s="2">
         <v>2002</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="18">
         <v>29771</v>
       </c>
     </row>
@@ -17367,7 +17334,7 @@
       <c r="C73" s="2">
         <v>2002</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="18">
         <v>30180</v>
       </c>
     </row>
@@ -17382,7 +17349,7 @@
       <c r="C74" s="2">
         <v>2002</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="18">
         <v>34334</v>
       </c>
     </row>
@@ -17397,7 +17364,7 @@
       <c r="C75" s="2">
         <v>2002</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="18">
         <v>39453</v>
       </c>
     </row>
@@ -17412,7 +17379,7 @@
       <c r="C76" s="2">
         <v>2002</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="18">
         <v>23941</v>
       </c>
     </row>
@@ -17427,7 +17394,7 @@
       <c r="C77" s="2">
         <v>2002</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="18">
         <v>36043</v>
       </c>
     </row>
@@ -17442,7 +17409,7 @@
       <c r="C78" s="2">
         <v>2002</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="18">
         <v>27711</v>
       </c>
     </row>
@@ -17457,7 +17424,7 @@
       <c r="C79" s="2">
         <v>2002</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="18">
         <v>26982</v>
       </c>
     </row>
@@ -17472,7 +17439,7 @@
       <c r="C80" s="2">
         <v>2002</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="18">
         <v>29405</v>
       </c>
     </row>
@@ -17487,7 +17454,7 @@
       <c r="C81" s="2">
         <v>2002</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="18">
         <v>25575</v>
       </c>
     </row>
@@ -17502,7 +17469,7 @@
       <c r="C82" s="2">
         <v>2002</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="18">
         <v>28731</v>
       </c>
     </row>
@@ -17517,7 +17484,7 @@
       <c r="C83" s="2">
         <v>2002</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="18">
         <v>31727</v>
       </c>
     </row>
@@ -17532,7 +17499,7 @@
       <c r="C84" s="2">
         <v>2002</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="18">
         <v>31319</v>
       </c>
     </row>
@@ -17547,7 +17514,7 @@
       <c r="C85" s="2">
         <v>2002</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="18">
         <v>25400</v>
       </c>
     </row>
@@ -17562,7 +17529,7 @@
       <c r="C86" s="2">
         <v>2002</v>
       </c>
-      <c r="D86" s="20">
+      <c r="D86" s="18">
         <v>26894</v>
       </c>
     </row>
@@ -17577,7 +17544,7 @@
       <c r="C87" s="2">
         <v>2002</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="18">
         <v>27671</v>
       </c>
     </row>
@@ -17592,7 +17559,7 @@
       <c r="C88" s="2">
         <v>2002</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D88" s="18">
         <v>28551</v>
       </c>
     </row>
@@ -17607,7 +17574,7 @@
       <c r="C89" s="2">
         <v>2002</v>
       </c>
-      <c r="D89" s="20">
+      <c r="D89" s="18">
         <v>24306</v>
       </c>
     </row>
@@ -17622,7 +17589,7 @@
       <c r="C90" s="2">
         <v>2002</v>
       </c>
-      <c r="D90" s="20">
+      <c r="D90" s="18">
         <v>29567</v>
       </c>
     </row>
@@ -17637,7 +17604,7 @@
       <c r="C91" s="2">
         <v>2002</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="18">
         <v>32922</v>
       </c>
     </row>
@@ -17652,7 +17619,7 @@
       <c r="C92" s="2">
         <v>2002</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="18">
         <v>32677</v>
       </c>
     </row>
@@ -17667,7 +17634,7 @@
       <c r="C93" s="2">
         <v>2002</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="18">
         <v>23688</v>
       </c>
     </row>
@@ -17682,7 +17649,7 @@
       <c r="C94" s="2">
         <v>2002</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="18">
         <v>29923</v>
       </c>
     </row>
@@ -17697,7 +17664,7 @@
       <c r="C95" s="2">
         <v>2002</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="18">
         <v>30578</v>
       </c>
     </row>
@@ -17712,7 +17679,7 @@
       <c r="C96" s="2">
         <v>2003</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="18">
         <v>26338</v>
       </c>
     </row>
@@ -17727,7 +17694,7 @@
       <c r="C97" s="2">
         <v>2003</v>
       </c>
-      <c r="D97" s="20">
+      <c r="D97" s="18">
         <v>33568</v>
       </c>
     </row>
@@ -17742,7 +17709,7 @@
       <c r="C98" s="2">
         <v>2003</v>
       </c>
-      <c r="D98" s="20">
+      <c r="D98" s="18">
         <v>26838</v>
       </c>
     </row>
@@ -17757,7 +17724,7 @@
       <c r="C99" s="2">
         <v>2003</v>
       </c>
-      <c r="D99" s="20">
+      <c r="D99" s="18">
         <v>24289</v>
       </c>
     </row>
@@ -17772,7 +17739,7 @@
       <c r="C100" s="2">
         <v>2003</v>
       </c>
-      <c r="D100" s="20">
+      <c r="D100" s="18">
         <v>33749</v>
       </c>
     </row>
@@ -17787,7 +17754,7 @@
       <c r="C101" s="2">
         <v>2003</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D101" s="18">
         <v>34283</v>
       </c>
     </row>
@@ -17802,7 +17769,7 @@
       <c r="C102" s="2">
         <v>2003</v>
       </c>
-      <c r="D102" s="20">
+      <c r="D102" s="18">
         <v>43173</v>
       </c>
     </row>
@@ -17817,7 +17784,7 @@
       <c r="C103" s="2">
         <v>2003</v>
       </c>
-      <c r="D103" s="20">
+      <c r="D103" s="18">
         <v>48342</v>
       </c>
     </row>
@@ -17832,7 +17799,7 @@
       <c r="C104" s="2">
         <v>2003</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D104" s="18">
         <v>30446</v>
       </c>
     </row>
@@ -17847,7 +17814,7 @@
       <c r="C105" s="2">
         <v>2003</v>
       </c>
-      <c r="D105" s="20">
+      <c r="D105" s="18">
         <v>29442</v>
       </c>
     </row>
@@ -17862,7 +17829,7 @@
       <c r="C106" s="2">
         <v>2003</v>
       </c>
-      <c r="D106" s="20">
+      <c r="D106" s="18">
         <v>30913</v>
       </c>
     </row>
@@ -17877,7 +17844,7 @@
       <c r="C107" s="2">
         <v>2003</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="18">
         <v>28783</v>
       </c>
     </row>
@@ -17892,7 +17859,7 @@
       <c r="C108" s="2">
         <v>2003</v>
       </c>
-      <c r="D108" s="20">
+      <c r="D108" s="18">
         <v>29043</v>
       </c>
     </row>
@@ -17907,7 +17874,7 @@
       <c r="C109" s="2">
         <v>2003</v>
       </c>
-      <c r="D109" s="20">
+      <c r="D109" s="18">
         <v>29935</v>
       </c>
     </row>
@@ -17922,7 +17889,7 @@
       <c r="C110" s="2">
         <v>2003</v>
       </c>
-      <c r="D110" s="20">
+      <c r="D110" s="18">
         <v>26252</v>
       </c>
     </row>
@@ -17937,7 +17904,7 @@
       <c r="C111" s="2">
         <v>2003</v>
       </c>
-      <c r="D111" s="20">
+      <c r="D111" s="18">
         <v>26100</v>
       </c>
     </row>
@@ -17952,7 +17919,7 @@
       <c r="C112" s="2">
         <v>2003</v>
       </c>
-      <c r="D112" s="20">
+      <c r="D112" s="18">
         <v>28831</v>
       </c>
     </row>
@@ -17967,7 +17934,7 @@
       <c r="C113" s="2">
         <v>2003</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="18">
         <v>37331</v>
       </c>
     </row>
@@ -17982,7 +17949,7 @@
       <c r="C114" s="2">
         <v>2003</v>
       </c>
-      <c r="D114" s="20">
+      <c r="D114" s="18">
         <v>39815</v>
       </c>
     </row>
@@ -17997,7 +17964,7 @@
       <c r="C115" s="2">
         <v>2003</v>
       </c>
-      <c r="D115" s="20">
+      <c r="D115" s="18">
         <v>30439</v>
       </c>
     </row>
@@ -18012,7 +17979,7 @@
       <c r="C116" s="2">
         <v>2003</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D116" s="18">
         <v>34443</v>
       </c>
     </row>
@@ -18027,7 +17994,7 @@
       <c r="C117" s="2">
         <v>2003</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D117" s="18">
         <v>23448</v>
       </c>
     </row>
@@ -18042,7 +18009,7 @@
       <c r="C118" s="2">
         <v>2003</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D118" s="18">
         <v>29252</v>
       </c>
     </row>
@@ -18057,7 +18024,7 @@
       <c r="C119" s="2">
         <v>2003</v>
       </c>
-      <c r="D119" s="20">
+      <c r="D119" s="18">
         <v>25920</v>
       </c>
     </row>
@@ -18072,7 +18039,7 @@
       <c r="C120" s="2">
         <v>2003</v>
       </c>
-      <c r="D120" s="20">
+      <c r="D120" s="18">
         <v>30758</v>
       </c>
     </row>
@@ -18087,7 +18054,7 @@
       <c r="C121" s="2">
         <v>2003</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D121" s="18">
         <v>31266</v>
       </c>
     </row>
@@ -18102,7 +18069,7 @@
       <c r="C122" s="2">
         <v>2003</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="18">
         <v>34702</v>
       </c>
     </row>
@@ -18117,7 +18084,7 @@
       <c r="C123" s="2">
         <v>2003</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D123" s="18">
         <v>40427</v>
       </c>
     </row>
@@ -18132,7 +18099,7 @@
       <c r="C124" s="2">
         <v>2003</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="18">
         <v>25541</v>
       </c>
     </row>
@@ -18147,7 +18114,7 @@
       <c r="C125" s="2">
         <v>2003</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D125" s="18">
         <v>36574</v>
       </c>
     </row>
@@ -18162,7 +18129,7 @@
       <c r="C126" s="2">
         <v>2003</v>
       </c>
-      <c r="D126" s="20">
+      <c r="D126" s="18">
         <v>28235</v>
       </c>
     </row>
@@ -18177,7 +18144,7 @@
       <c r="C127" s="2">
         <v>2003</v>
       </c>
-      <c r="D127" s="20">
+      <c r="D127" s="18">
         <v>29204</v>
       </c>
     </row>
@@ -18192,7 +18159,7 @@
       <c r="C128" s="2">
         <v>2003</v>
       </c>
-      <c r="D128" s="20">
+      <c r="D128" s="18">
         <v>29944</v>
       </c>
     </row>
@@ -18207,7 +18174,7 @@
       <c r="C129" s="2">
         <v>2003</v>
       </c>
-      <c r="D129" s="20">
+      <c r="D129" s="18">
         <v>26656</v>
       </c>
     </row>
@@ -18222,7 +18189,7 @@
       <c r="C130" s="2">
         <v>2003</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D130" s="18">
         <v>29340</v>
       </c>
     </row>
@@ -18237,7 +18204,7 @@
       <c r="C131" s="2">
         <v>2003</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D131" s="18">
         <v>31998</v>
       </c>
     </row>
@@ -18252,7 +18219,7 @@
       <c r="C132" s="2">
         <v>2003</v>
       </c>
-      <c r="D132" s="20">
+      <c r="D132" s="18">
         <v>31916</v>
       </c>
     </row>
@@ -18267,7 +18234,7 @@
       <c r="C133" s="2">
         <v>2003</v>
       </c>
-      <c r="D133" s="20">
+      <c r="D133" s="18">
         <v>26132</v>
       </c>
     </row>
@@ -18282,7 +18249,7 @@
       <c r="C134" s="2">
         <v>2003</v>
       </c>
-      <c r="D134" s="20">
+      <c r="D134" s="18">
         <v>29234</v>
       </c>
     </row>
@@ -18297,7 +18264,7 @@
       <c r="C135" s="2">
         <v>2003</v>
       </c>
-      <c r="D135" s="20">
+      <c r="D135" s="18">
         <v>28455</v>
       </c>
     </row>
@@ -18312,7 +18279,7 @@
       <c r="C136" s="2">
         <v>2003</v>
       </c>
-      <c r="D136" s="20">
+      <c r="D136" s="18">
         <v>29372</v>
       </c>
     </row>
@@ -18327,7 +18294,7 @@
       <c r="C137" s="2">
         <v>2003</v>
       </c>
-      <c r="D137" s="20">
+      <c r="D137" s="18">
         <v>24977</v>
       </c>
     </row>
@@ -18342,7 +18309,7 @@
       <c r="C138" s="2">
         <v>2003</v>
       </c>
-      <c r="D138" s="20">
+      <c r="D138" s="18">
         <v>30740</v>
       </c>
     </row>
@@ -18357,7 +18324,7 @@
       <c r="C139" s="2">
         <v>2003</v>
       </c>
-      <c r="D139" s="20">
+      <c r="D139" s="18">
         <v>33671</v>
       </c>
     </row>
@@ -18372,7 +18339,7 @@
       <c r="C140" s="2">
         <v>2003</v>
       </c>
-      <c r="D140" s="20">
+      <c r="D140" s="18">
         <v>33332</v>
       </c>
     </row>
@@ -18387,7 +18354,7 @@
       <c r="C141" s="2">
         <v>2003</v>
       </c>
-      <c r="D141" s="20">
+      <c r="D141" s="18">
         <v>24379</v>
       </c>
     </row>
@@ -18402,7 +18369,7 @@
       <c r="C142" s="2">
         <v>2003</v>
       </c>
-      <c r="D142" s="20">
+      <c r="D142" s="18">
         <v>30898</v>
       </c>
     </row>
@@ -18417,7 +18384,7 @@
       <c r="C143" s="2">
         <v>2003</v>
       </c>
-      <c r="D143" s="20">
+      <c r="D143" s="18">
         <v>32808</v>
       </c>
     </row>
@@ -18432,7 +18399,7 @@
       <c r="C144" s="2">
         <v>2004</v>
       </c>
-      <c r="D144" s="20">
+      <c r="D144" s="18">
         <v>29136</v>
       </c>
     </row>
@@ -18447,7 +18414,7 @@
       <c r="C145" s="2">
         <v>2004</v>
       </c>
-      <c r="D145" s="20">
+      <c r="D145" s="18">
         <v>35612</v>
       </c>
     </row>
@@ -18462,7 +18429,7 @@
       <c r="C146" s="2">
         <v>2004</v>
       </c>
-      <c r="D146" s="20">
+      <c r="D146" s="18">
         <v>30267</v>
       </c>
     </row>
@@ -18477,7 +18444,7 @@
       <c r="C147" s="2">
         <v>2004</v>
       </c>
-      <c r="D147" s="20">
+      <c r="D147" s="18">
         <v>26874</v>
       </c>
     </row>
@@ -18492,7 +18459,7 @@
       <c r="C148" s="2">
         <v>2004</v>
       </c>
-      <c r="D148" s="20">
+      <c r="D148" s="18">
         <v>37036</v>
       </c>
     </row>
@@ -18507,7 +18474,7 @@
       <c r="C149" s="2">
         <v>2004</v>
       </c>
-      <c r="D149" s="20">
+      <c r="D149" s="18">
         <v>37946</v>
       </c>
     </row>
@@ -18522,7 +18489,7 @@
       <c r="C150" s="2">
         <v>2004</v>
       </c>
-      <c r="D150" s="20">
+      <c r="D150" s="18">
         <v>47819</v>
       </c>
     </row>
@@ -18537,7 +18504,7 @@
       <c r="C151" s="2">
         <v>2004</v>
       </c>
-      <c r="D151" s="20">
+      <c r="D151" s="18">
         <v>37065</v>
       </c>
     </row>
@@ -18552,7 +18519,7 @@
       <c r="C152" s="2">
         <v>2004</v>
       </c>
-      <c r="D152" s="20">
+      <c r="D152" s="18">
         <v>54985</v>
       </c>
     </row>
@@ -18567,7 +18534,7 @@
       <c r="C153" s="2">
         <v>2004</v>
       </c>
-      <c r="D153" s="20">
+      <c r="D153" s="18">
         <v>33219</v>
       </c>
     </row>
@@ -18582,7 +18549,7 @@
       <c r="C154" s="2">
         <v>2004</v>
       </c>
-      <c r="D154" s="20">
+      <c r="D154" s="18">
         <v>31121</v>
       </c>
     </row>
@@ -18597,7 +18564,7 @@
       <c r="C155" s="2">
         <v>2004</v>
       </c>
-      <c r="D155" s="20">
+      <c r="D155" s="18">
         <v>34539</v>
       </c>
     </row>
@@ -18612,7 +18579,7 @@
       <c r="C156" s="2">
         <v>2004</v>
       </c>
-      <c r="D156" s="20">
+      <c r="D156" s="18">
         <v>28158</v>
       </c>
     </row>
@@ -18627,7 +18594,7 @@
       <c r="C157" s="2">
         <v>2004</v>
       </c>
-      <c r="D157" s="20">
+      <c r="D157" s="18">
         <v>36120</v>
       </c>
     </row>
@@ -18642,7 +18609,7 @@
       <c r="C158" s="2">
         <v>2004</v>
       </c>
-      <c r="D158" s="20">
+      <c r="D158" s="18">
         <v>31276</v>
       </c>
     </row>
@@ -18657,7 +18624,7 @@
       <c r="C159" s="2">
         <v>2004</v>
       </c>
-      <c r="D159" s="20">
+      <c r="D159" s="18">
         <v>32315</v>
       </c>
     </row>
@@ -18672,7 +18639,7 @@
       <c r="C160" s="2">
         <v>2004</v>
       </c>
-      <c r="D160" s="20">
+      <c r="D160" s="18">
         <v>32836</v>
       </c>
     </row>
@@ -18687,7 +18654,7 @@
       <c r="C161" s="2">
         <v>2004</v>
       </c>
-      <c r="D161" s="20">
+      <c r="D161" s="18">
         <v>28513</v>
       </c>
     </row>
@@ -18702,7 +18669,7 @@
       <c r="C162" s="2">
         <v>2004</v>
       </c>
-      <c r="D162" s="20">
+      <c r="D162" s="18">
         <v>24820</v>
       </c>
     </row>
@@ -18717,7 +18684,7 @@
       <c r="C163" s="2">
         <v>2004</v>
       </c>
-      <c r="D163" s="20">
+      <c r="D163" s="18">
         <v>31252</v>
       </c>
     </row>
@@ -18732,7 +18699,7 @@
       <c r="C164" s="2">
         <v>2004</v>
       </c>
-      <c r="D164" s="20">
+      <c r="D164" s="18">
         <v>41760</v>
       </c>
     </row>
@@ -18747,7 +18714,7 @@
       <c r="C165" s="2">
         <v>2004</v>
       </c>
-      <c r="D165" s="20">
+      <c r="D165" s="18">
         <v>44289</v>
       </c>
     </row>
@@ -18762,7 +18729,7 @@
       <c r="C166" s="2">
         <v>2004</v>
       </c>
-      <c r="D166" s="20">
+      <c r="D166" s="18">
         <v>33116</v>
       </c>
     </row>
@@ -18777,7 +18744,7 @@
       <c r="C167" s="2">
         <v>2004</v>
       </c>
-      <c r="D167" s="20">
+      <c r="D167" s="18">
         <v>37373</v>
       </c>
     </row>
@@ -18792,7 +18759,7 @@
       <c r="C168" s="2">
         <v>2004</v>
       </c>
-      <c r="D168" s="20">
+      <c r="D168" s="18">
         <v>25318</v>
       </c>
     </row>
@@ -18807,7 +18774,7 @@
       <c r="C169" s="2">
         <v>2004</v>
       </c>
-      <c r="D169" s="20">
+      <c r="D169" s="18">
         <v>31899</v>
       </c>
     </row>
@@ -18822,7 +18789,7 @@
       <c r="C170" s="2">
         <v>2004</v>
       </c>
-      <c r="D170" s="20">
+      <c r="D170" s="18">
         <v>29387</v>
       </c>
     </row>
@@ -18837,7 +18804,7 @@
       <c r="C171" s="2">
         <v>2004</v>
       </c>
-      <c r="D171" s="20">
+      <c r="D171" s="18">
         <v>33616</v>
       </c>
     </row>
@@ -18852,7 +18819,7 @@
       <c r="C172" s="2">
         <v>2004</v>
       </c>
-      <c r="D172" s="20">
+      <c r="D172" s="18">
         <v>38408</v>
       </c>
     </row>
@@ -18867,7 +18834,7 @@
       <c r="C173" s="2">
         <v>2004</v>
       </c>
-      <c r="D173" s="20">
+      <c r="D173" s="18">
         <v>27644</v>
       </c>
     </row>
@@ -18882,7 +18849,7 @@
       <c r="C174" s="2">
         <v>2004</v>
       </c>
-      <c r="D174" s="20">
+      <c r="D174" s="18">
         <v>30553</v>
       </c>
     </row>
@@ -18897,7 +18864,7 @@
       <c r="C175" s="2">
         <v>2004</v>
       </c>
-      <c r="D175" s="20">
+      <c r="D175" s="18">
         <v>31395</v>
       </c>
     </row>
@@ -18912,7 +18879,7 @@
       <c r="C176" s="2">
         <v>2004</v>
       </c>
-      <c r="D176" s="20">
+      <c r="D176" s="18">
         <v>32478</v>
       </c>
     </row>
@@ -18927,7 +18894,7 @@
       <c r="C177" s="2">
         <v>2004</v>
       </c>
-      <c r="D177" s="20">
+      <c r="D177" s="18">
         <v>29330</v>
       </c>
     </row>
@@ -18942,7 +18909,7 @@
       <c r="C178" s="2">
         <v>2004</v>
       </c>
-      <c r="D178" s="20">
+      <c r="D178" s="18">
         <v>32103</v>
       </c>
     </row>
@@ -18957,7 +18924,7 @@
       <c r="C179" s="2">
         <v>2004</v>
       </c>
-      <c r="D179" s="20">
+      <c r="D179" s="18">
         <v>34897</v>
       </c>
     </row>
@@ -18972,7 +18939,7 @@
       <c r="C180" s="2">
         <v>2004</v>
       </c>
-      <c r="D180" s="20">
+      <c r="D180" s="18">
         <v>36153</v>
       </c>
     </row>
@@ -18987,7 +18954,7 @@
       <c r="C181" s="2">
         <v>2004</v>
       </c>
-      <c r="D181" s="20">
+      <c r="D181" s="18">
         <v>28352</v>
       </c>
     </row>
@@ -19002,7 +18969,7 @@
       <c r="C182" s="2">
         <v>2004</v>
       </c>
-      <c r="D182" s="20">
+      <c r="D182" s="18">
         <v>31614</v>
       </c>
     </row>
@@ -19017,7 +18984,7 @@
       <c r="C183" s="2">
         <v>2004</v>
       </c>
-      <c r="D183" s="20">
+      <c r="D183" s="18">
         <v>31107</v>
       </c>
     </row>
@@ -19032,7 +18999,7 @@
       <c r="C184" s="2">
         <v>2004</v>
       </c>
-      <c r="D184" s="20">
+      <c r="D184" s="18">
         <v>32462</v>
       </c>
     </row>
@@ -19047,7 +19014,7 @@
       <c r="C185" s="2">
         <v>2004</v>
       </c>
-      <c r="D185" s="20">
+      <c r="D185" s="18">
         <v>33327</v>
       </c>
     </row>
@@ -19062,7 +19029,7 @@
       <c r="C186" s="2">
         <v>2004</v>
       </c>
-      <c r="D186" s="20">
+      <c r="D186" s="18">
         <v>38390</v>
       </c>
     </row>
@@ -19077,7 +19044,7 @@
       <c r="C187" s="2">
         <v>2004</v>
       </c>
-      <c r="D187" s="20">
+      <c r="D187" s="18">
         <v>35409</v>
       </c>
     </row>
@@ -19092,7 +19059,7 @@
       <c r="C188" s="2">
         <v>2004</v>
       </c>
-      <c r="D188" s="20">
+      <c r="D188" s="18">
         <v>27215</v>
       </c>
     </row>
@@ -19107,7 +19074,7 @@
       <c r="C189" s="2">
         <v>2004</v>
       </c>
-      <c r="D189" s="20">
+      <c r="D189" s="18">
         <v>33565</v>
       </c>
     </row>
@@ -19122,7 +19089,7 @@
       <c r="C190" s="2">
         <v>2004</v>
       </c>
-      <c r="D190" s="20">
+      <c r="D190" s="18">
         <v>36778</v>
       </c>
     </row>
@@ -19149,23 +19116,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="65" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="54" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>200</v>
       </c>
     </row>
@@ -19182,10 +19149,10 @@
       <c r="D2" s="6">
         <v>38</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="48">
         <v>2009</v>
       </c>
     </row>
@@ -19202,10 +19169,10 @@
       <c r="D3" s="6">
         <v>42</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="48" t="s">
         <v>198</v>
       </c>
     </row>
@@ -19222,7 +19189,7 @@
       <c r="D4" s="6">
         <v>40</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -19237,10 +19204,10 @@
       <c r="D5" s="6">
         <v>46</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="52">
         <f>INDEX($A$1:$D$18,MATCH($G$2,$A$1:$A$18,0),MATCH($G$3,$A$1:$D$1,0))</f>
         <v>31634</v>
       </c>
@@ -19459,23 +19426,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="38" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="37">
         <v>42370</v>
       </c>
       <c r="B2" s="2">
@@ -19484,13 +19451,13 @@
       <c r="C2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="40">
         <f>COUNTA(A:A)-1</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+      <c r="A3" s="37">
         <v>42371</v>
       </c>
       <c r="B3" s="2">
@@ -19499,7 +19466,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+      <c r="A4" s="37">
         <v>42372</v>
       </c>
       <c r="B4" s="2">
@@ -19508,22 +19475,22 @@
       <c r="C4" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="41">
         <f ca="1">OFFSET(A1,COUNTA(A:A)-1,0,1,1)</f>
         <v>42389</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+      <c r="A5" s="37">
         <v>42373</v>
       </c>
       <c r="B5" s="2">
         <v>51</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="A6" s="37">
         <v>42374</v>
       </c>
       <c r="B6" s="2">
@@ -19532,22 +19499,22 @@
       <c r="C6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="40">
         <f ca="1">OFFSET(A1,COUNTA(A:A)-1,1,1,1)</f>
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+      <c r="A7" s="37">
         <v>42375</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="A8" s="37">
         <v>42376</v>
       </c>
       <c r="B8" s="2">
@@ -19556,23 +19523,23 @@
       <c r="C8" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="40">
         <f ca="1">SUM(OFFSET(B1,0,0,COUNTA(B:B),1))</f>
         <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="37">
         <v>42377</v>
       </c>
       <c r="B9" s="2">
         <v>53</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="48"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="37">
         <v>42378</v>
       </c>
       <c r="B10" s="2">
@@ -19581,22 +19548,22 @@
       <c r="C10" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="40">
         <f ca="1">SUM(OFFSET(B1,0,0,COUNTA(B:B)-1,1))</f>
         <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="37">
         <v>42379</v>
       </c>
       <c r="B11" s="2">
         <v>48</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="37">
         <v>42380</v>
       </c>
       <c r="B12" s="2">
@@ -19604,7 +19571,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="37">
         <v>42381</v>
       </c>
       <c r="B13" s="2">
@@ -19612,7 +19579,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="37">
         <v>42382</v>
       </c>
       <c r="B14" s="2">
@@ -19620,7 +19587,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="37">
         <v>42383</v>
       </c>
       <c r="B15" s="2">
@@ -19628,7 +19595,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="37">
         <v>42384</v>
       </c>
       <c r="B16" s="2">
@@ -19636,7 +19603,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="37">
         <v>42385</v>
       </c>
       <c r="B17" s="2">
@@ -19644,7 +19611,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="37">
         <v>42386</v>
       </c>
       <c r="B18" s="2">
@@ -19652,7 +19619,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="37">
         <v>42387</v>
       </c>
       <c r="B19" s="2">
@@ -19660,7 +19627,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="37">
         <v>42388</v>
       </c>
       <c r="B20" s="2">
@@ -19668,7 +19635,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+      <c r="A21" s="37">
         <v>42389</v>
       </c>
       <c r="B21" s="2">
@@ -19705,489 +19672,489 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="48" t="str">
         <f>LEFT(A2,6)</f>
         <v>133462</v>
       </c>
-      <c r="C2" s="57" t="str">
+      <c r="C2" s="48" t="str">
         <f>LEFT(A2,SEARCH("-",A2)-1)</f>
         <v>133462</v>
       </c>
-      <c r="D2" s="57" t="str">
+      <c r="D2" s="48" t="str">
         <f>MID(A2,SEARCH("-",A2)+1,2)</f>
         <v>AA</v>
       </c>
-      <c r="E2" s="57" t="str">
+      <c r="E2" s="48" t="str">
         <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"SMALL",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"MEDIUM",IF(ISNUMBER(SEARCH("LARGE",A2)),"LARGE",IF(ISNUMBER(SEARCH("XL",A2)),"XL"))))</f>
         <v>SMALL</v>
       </c>
-      <c r="F2" s="57" t="str">
+      <c r="F2" s="48" t="str">
         <f>RIGHT(A2,LEN(A2)-SEARCH("_",A2))</f>
         <v>SMALL</v>
       </c>
-      <c r="G2" s="60" t="str">
+      <c r="G2" s="48" t="str">
         <f>SUBSTITUTE(A2,"-","|",2)</f>
         <v>133462-AA|BOS_SMALL</v>
       </c>
-      <c r="H2" s="60" t="str">
+      <c r="H2" s="48" t="str">
         <f>MID(G2,SEARCH("|",G2)+1,3)</f>
         <v>BOS</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="57" t="str">
+      <c r="B3" s="48" t="str">
         <f t="shared" ref="B3:B15" si="0">LEFT(A3,6)</f>
         <v>191768</v>
       </c>
-      <c r="C3" s="57" t="str">
+      <c r="C3" s="48" t="str">
         <f t="shared" ref="C3:C15" si="1">LEFT(A3,SEARCH("-",A3)-1)</f>
         <v>191768</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="48" t="str">
         <f t="shared" ref="D3:D15" si="2">MID(A3,SEARCH("-",A3)+1,2)</f>
         <v>AC</v>
       </c>
-      <c r="E3" s="57" t="str">
+      <c r="E3" s="48" t="str">
         <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"SMALL",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"MEDIUM",IF(ISNUMBER(SEARCH("LARGE",A3)),"LARGE",IF(ISNUMBER(SEARCH("XL",A3)),"XL"))))</f>
         <v>MEDIUM</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="48" t="str">
         <f t="shared" ref="F3:F15" si="4">RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
         <v>MEDIUM</v>
       </c>
-      <c r="G3" s="60" t="str">
+      <c r="G3" s="48" t="str">
         <f t="shared" ref="G3:G15" si="5">SUBSTITUTE(A3,"-","|",2)</f>
         <v>191768-AC|NYC_MEDIUM</v>
       </c>
-      <c r="H3" s="60" t="str">
+      <c r="H3" s="48" t="str">
         <f t="shared" ref="H3:H15" si="6">MID(G3,SEARCH("|",G3)+1,3)</f>
         <v>NYC</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="57" t="str">
+      <c r="B4" s="48" t="str">
         <f t="shared" si="0"/>
         <v>157263</v>
       </c>
-      <c r="C4" s="57" t="str">
+      <c r="C4" s="48" t="str">
         <f t="shared" si="1"/>
         <v>157263</v>
       </c>
-      <c r="D4" s="57" t="str">
+      <c r="D4" s="48" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E4" s="57" t="str">
+      <c r="E4" s="48" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F4" s="57" t="str">
+      <c r="F4" s="48" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G4" s="60" t="str">
+      <c r="G4" s="48" t="str">
         <f t="shared" si="5"/>
         <v>157263-BB|BOS_XL</v>
       </c>
-      <c r="H4" s="60" t="str">
+      <c r="H4" s="48" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="57" t="str">
+      <c r="B5" s="48" t="str">
         <f t="shared" si="0"/>
         <v>173437</v>
       </c>
-      <c r="C5" s="57" t="str">
+      <c r="C5" s="48" t="str">
         <f t="shared" si="1"/>
         <v>1734372</v>
       </c>
-      <c r="D5" s="57" t="str">
+      <c r="D5" s="48" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E5" s="57" t="str">
+      <c r="E5" s="48" t="str">
         <f t="shared" si="3"/>
         <v>SMALL</v>
       </c>
-      <c r="F5" s="57" t="str">
+      <c r="F5" s="48" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G5" s="60" t="str">
+      <c r="G5" s="48" t="str">
         <f t="shared" si="5"/>
         <v>1734372-AA|CHI_SMALL</v>
       </c>
-      <c r="H5" s="60" t="str">
+      <c r="H5" s="48" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="57" t="str">
+      <c r="B6" s="48" t="str">
         <f t="shared" si="0"/>
         <v>135351</v>
       </c>
-      <c r="C6" s="57" t="str">
+      <c r="C6" s="48" t="str">
         <f t="shared" si="1"/>
         <v>135351</v>
       </c>
-      <c r="D6" s="57" t="str">
+      <c r="D6" s="48" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E6" s="57" t="str">
+      <c r="E6" s="48" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F6" s="57" t="str">
+      <c r="F6" s="48" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G6" s="60" t="str">
+      <c r="G6" s="48" t="str">
         <f t="shared" si="5"/>
         <v>135351-BC|NYC_XL</v>
       </c>
-      <c r="H6" s="60" t="str">
+      <c r="H6" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="48" t="str">
         <f t="shared" si="0"/>
         <v>143303</v>
       </c>
-      <c r="C7" s="57" t="str">
+      <c r="C7" s="48" t="str">
         <f t="shared" si="1"/>
         <v>14330305</v>
       </c>
-      <c r="D7" s="57" t="str">
+      <c r="D7" s="48" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E7" s="57" t="str">
+      <c r="E7" s="48" t="str">
         <f t="shared" si="3"/>
         <v>LARGE</v>
       </c>
-      <c r="F7" s="57" t="str">
+      <c r="F7" s="48" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G7" s="60" t="str">
+      <c r="G7" s="48" t="str">
         <f t="shared" si="5"/>
         <v>14330305-AC|BOS_LARGE</v>
       </c>
-      <c r="H7" s="60" t="str">
+      <c r="H7" s="48" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="57" t="str">
+      <c r="B8" s="48" t="str">
         <f t="shared" si="0"/>
         <v>177772</v>
       </c>
-      <c r="C8" s="57" t="str">
+      <c r="C8" s="48" t="str">
         <f t="shared" si="1"/>
         <v>177772</v>
       </c>
-      <c r="D8" s="57" t="str">
+      <c r="D8" s="48" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E8" s="57" t="str">
+      <c r="E8" s="48" t="str">
         <f t="shared" si="3"/>
         <v>MEDIUM</v>
       </c>
-      <c r="F8" s="57" t="str">
+      <c r="F8" s="48" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G8" s="60" t="str">
+      <c r="G8" s="48" t="str">
         <f t="shared" si="5"/>
         <v>177772-BB|NYC_MEDIUM</v>
       </c>
-      <c r="H8" s="60" t="str">
+      <c r="H8" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="57" t="str">
+      <c r="B9" s="48" t="str">
         <f t="shared" si="0"/>
         <v>871928</v>
       </c>
-      <c r="C9" s="57" t="str">
+      <c r="C9" s="48" t="str">
         <f t="shared" si="1"/>
         <v>87192837</v>
       </c>
-      <c r="D9" s="57" t="str">
+      <c r="D9" s="48" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E9" s="57" t="str">
+      <c r="E9" s="48" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F9" s="57" t="str">
+      <c r="F9" s="48" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G9" s="60" t="str">
+      <c r="G9" s="48" t="str">
         <f t="shared" si="5"/>
         <v>87192837-AB|CHI_XL</v>
       </c>
-      <c r="H9" s="60" t="str">
+      <c r="H9" s="48" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="57" t="str">
+      <c r="B10" s="48" t="str">
         <f t="shared" si="0"/>
         <v>161266</v>
       </c>
-      <c r="C10" s="57" t="str">
+      <c r="C10" s="48" t="str">
         <f t="shared" si="1"/>
         <v>161266</v>
       </c>
-      <c r="D10" s="57" t="str">
+      <c r="D10" s="48" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E10" s="57" t="str">
+      <c r="E10" s="48" t="str">
         <f t="shared" si="3"/>
         <v>SMALL</v>
       </c>
-      <c r="F10" s="57" t="str">
+      <c r="F10" s="48" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G10" s="60" t="str">
+      <c r="G10" s="48" t="str">
         <f t="shared" si="5"/>
         <v>161266-BB|CHI_SMALL</v>
       </c>
-      <c r="H10" s="60" t="str">
+      <c r="H10" s="48" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="57" t="str">
+      <c r="B11" s="48" t="str">
         <f t="shared" si="0"/>
         <v>122892</v>
       </c>
-      <c r="C11" s="57" t="str">
+      <c r="C11" s="48" t="str">
         <f t="shared" si="1"/>
         <v>122892</v>
       </c>
-      <c r="D11" s="57" t="str">
+      <c r="D11" s="48" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E11" s="57" t="str">
+      <c r="E11" s="48" t="str">
         <f t="shared" si="3"/>
         <v>MEDIUM</v>
       </c>
-      <c r="F11" s="57" t="str">
+      <c r="F11" s="48" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G11" s="60" t="str">
+      <c r="G11" s="48" t="str">
         <f t="shared" si="5"/>
         <v>122892-AA|NYC_MEDIUM</v>
       </c>
-      <c r="H11" s="60" t="str">
+      <c r="H11" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="57" t="str">
+      <c r="B12" s="48" t="str">
         <f t="shared" si="0"/>
         <v>128919</v>
       </c>
-      <c r="C12" s="57" t="str">
+      <c r="C12" s="48" t="str">
         <f t="shared" si="1"/>
         <v>128919</v>
       </c>
-      <c r="D12" s="57" t="str">
+      <c r="D12" s="48" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E12" s="57" t="str">
+      <c r="E12" s="48" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F12" s="57" t="str">
+      <c r="F12" s="48" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G12" s="60" t="str">
+      <c r="G12" s="48" t="str">
         <f t="shared" si="5"/>
         <v>128919-AC|CHI_XL</v>
       </c>
-      <c r="H12" s="60" t="str">
+      <c r="H12" s="48" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="48" t="str">
         <f t="shared" si="0"/>
         <v>191999</v>
       </c>
-      <c r="C13" s="57" t="str">
+      <c r="C13" s="48" t="str">
         <f t="shared" si="1"/>
         <v>191999</v>
       </c>
-      <c r="D13" s="57" t="str">
+      <c r="D13" s="48" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E13" s="57" t="str">
+      <c r="E13" s="48" t="str">
         <f t="shared" si="3"/>
         <v>LARGE</v>
       </c>
-      <c r="F13" s="57" t="str">
+      <c r="F13" s="48" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G13" s="60" t="str">
+      <c r="G13" s="48" t="str">
         <f t="shared" si="5"/>
         <v>191999-BB|BOS_LARGE</v>
       </c>
-      <c r="H13" s="60" t="str">
+      <c r="H13" s="48" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="57" t="str">
+      <c r="B14" s="48" t="str">
         <f t="shared" si="0"/>
         <v>117091</v>
       </c>
-      <c r="C14" s="57" t="str">
+      <c r="C14" s="48" t="str">
         <f t="shared" si="1"/>
         <v>117091126</v>
       </c>
-      <c r="D14" s="57" t="str">
+      <c r="D14" s="48" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E14" s="57" t="str">
+      <c r="E14" s="48" t="str">
         <f t="shared" si="3"/>
         <v>LARGE</v>
       </c>
-      <c r="F14" s="57" t="str">
+      <c r="F14" s="48" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G14" s="60" t="str">
+      <c r="G14" s="48" t="str">
         <f t="shared" si="5"/>
         <v>117091126-BC|NYC_LARGE</v>
       </c>
-      <c r="H14" s="60" t="str">
+      <c r="H14" s="48" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="57" t="str">
+      <c r="B15" s="48" t="str">
         <f t="shared" si="0"/>
         <v>112283</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="48" t="str">
         <f t="shared" si="1"/>
         <v>112283</v>
       </c>
-      <c r="D15" s="57" t="str">
+      <c r="D15" s="48" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E15" s="57" t="str">
+      <c r="E15" s="48" t="str">
         <f t="shared" si="3"/>
         <v>MEDIUM</v>
       </c>
-      <c r="F15" s="57" t="str">
+      <c r="F15" s="48" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G15" s="60" t="str">
+      <c r="G15" s="48" t="str">
         <f t="shared" si="5"/>
         <v>112283-AB|BOS_MEDIUM</v>
       </c>
-      <c r="H15" s="60" t="str">
+      <c r="H15" s="48" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>

--- a/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432CAFBD-B820-4270-8B24-384A60040315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A933F14C-C8B4-4AEC-914C-4FFFE8CCF2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -2414,15 +2414,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2433,6 +2424,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="C3" s="42">
         <f ca="1">TODAY()</f>
-        <v>45081</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">NOW()</f>
-        <v>45081.00218865741</v>
+        <v>45082.831322916667</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7450,19 +7450,19 @@
       </c>
       <c r="D7" s="44">
         <f ca="1">DAY(C3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">HOUR(C4)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F7" s="44">
         <f ca="1">MINUTE(C4)</f>
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G7" s="44">
         <f ca="1">SECOND(C4)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="C9" s="62">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C11" s="42">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>45149</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="C12" s="45">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -8672,23 +8672,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="G1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -9156,27 +9156,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
     </row>
     <row r="19" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
@@ -9200,50 +9200,50 @@
       <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
@@ -9269,96 +9269,96 @@
       <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
     </row>
     <row r="25" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
     </row>
     <row r="26" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
     </row>
     <row r="27" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
@@ -9384,81 +9384,76 @@
       <c r="S27" s="68"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
     </row>
     <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A20:S20"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9467,6 +9462,11 @@
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
     <mergeCell ref="A26:S26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A20:S20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9936,7 +9936,7 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -11251,7 +11251,7 @@
   <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19420,8 +19420,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A933F14C-C8B4-4AEC-914C-4FFFE8CCF2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175EB0A-7DA7-490B-AA5B-F706655DFF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -2414,6 +2414,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2424,15 +2433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="C3" s="42">
         <f ca="1">TODAY()</f>
-        <v>45082</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">NOW()</f>
-        <v>45082.831322916667</v>
+        <v>45086.791605439816</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7450,19 +7450,19 @@
       </c>
       <c r="D7" s="44">
         <f ca="1">DAY(C3)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">HOUR(C4)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="44">
         <f ca="1">MINUTE(C4)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" s="44">
         <f ca="1">SECOND(C4)</f>
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="C9" s="62">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C11" s="42">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>45152</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="C12" s="45">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>2198</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7611,7 +7611,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -8269,16 +8269,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G2&lt;0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F2="Kids"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
@@ -8290,14 +8288,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A25">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$G2&lt;0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F25">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F2="Kids"</formula>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8672,23 +8672,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="G1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -9156,27 +9156,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
     </row>
     <row r="19" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
@@ -9200,50 +9200,50 @@
       <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
@@ -9269,96 +9269,96 @@
       <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
     </row>
     <row r="25" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
     </row>
     <row r="26" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
     </row>
     <row r="27" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
@@ -9384,76 +9384,81 @@
       <c r="S27" s="68"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
     </row>
     <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A20:S20"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9462,11 +9467,6 @@
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
     <mergeCell ref="A26:S26"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A20:S20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19420,7 +19420,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
+++ b/ExcelF&F_Ejercicios_Tarea_RESPUESTAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Daniel\Desktop\GitHub\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175EB0A-7DA7-490B-AA5B-F706655DFF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A425AA6-BEF7-41CC-A7A6-86AC0FBE930F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="709" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -2414,15 +2414,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2433,6 +2424,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="C3" s="42">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45087</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="C4" s="43">
         <f ca="1">NOW()</f>
-        <v>45086.791605439816</v>
+        <v>45087.791505324072</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="D7" s="44">
         <f ca="1">DAY(C3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="44">
         <f ca="1">HOUR(C4)</f>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="G7" s="44">
         <f ca="1">SECOND(C4)</f>
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="C9" s="62">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7611,7 +7611,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -8312,7 +8312,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -8672,23 +8672,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="G1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -9156,27 +9156,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
     </row>
     <row r="19" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
@@ -9200,50 +9200,50 @@
       <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
@@ -9269,96 +9269,96 @@
       <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
     </row>
     <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
     </row>
     <row r="25" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
     </row>
     <row r="26" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
     </row>
     <row r="27" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
@@ -9384,81 +9384,76 @@
       <c r="S27" s="68"/>
     </row>
     <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
     </row>
     <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
     </row>
     <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A20:S20"/>
     <mergeCell ref="A28:S28"/>
     <mergeCell ref="A29:S29"/>
     <mergeCell ref="A30:S30"/>
@@ -9467,6 +9462,11 @@
     <mergeCell ref="A24:S24"/>
     <mergeCell ref="A25:S25"/>
     <mergeCell ref="A26:S26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A20:S20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
